--- a/VDO测试结果统计 ver4.14.xlsx
+++ b/VDO测试结果统计 ver4.14.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wxw\Desktop\intel-vdo-note\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\【study】\毕业设计\intel-vdo-note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED2681DD-D3C4-4258-A943-A0E29EEFF8DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2219E3E-4BA0-4491-BAB0-FD602C781D85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9372" yWindow="684" windowWidth="13524" windowHeight="11472" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="测试1-benchmark" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="测试5-bs" sheetId="6" r:id="rId6"/>
     <sheet name="测试6-压缩率" sheetId="7" r:id="rId7"/>
     <sheet name="测试7-hash" sheetId="9" r:id="rId8"/>
-    <sheet name="测试6-Calgary" sheetId="8" state="hidden" r:id="rId9"/>
+    <sheet name="测试6-Calgary" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -1374,15 +1374,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1392,6 +1383,9 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1399,6 +1393,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1755,8 +1755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P95"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J98" sqref="J98"/>
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1769,21 +1769,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="39"/>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
+      <c r="A1" s="42"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="43" t="s">
         <v>22</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1824,7 +1824,7 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="46"/>
+      <c r="A3" s="44"/>
       <c r="B3" s="4" t="s">
         <v>20</v>
       </c>
@@ -1863,7 +1863,7 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="47"/>
+      <c r="A4" s="45"/>
       <c r="B4" s="4" t="s">
         <v>19</v>
       </c>
@@ -1899,7 +1899,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="45"/>
+      <c r="A5" s="43"/>
       <c r="B5" s="5" t="s">
         <v>18</v>
       </c>
@@ -1938,7 +1938,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="46"/>
+      <c r="A6" s="44"/>
       <c r="B6" s="5" t="s">
         <v>20</v>
       </c>
@@ -1955,7 +1955,7 @@
       <c r="N6" s="10"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="47"/>
+      <c r="A7" s="45"/>
       <c r="B7" s="5" t="s">
         <v>19</v>
       </c>
@@ -1992,21 +1992,21 @@
       <c r="N7" s="10"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="39"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
+      <c r="A8" s="42"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="42"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="43" t="s">
         <v>28</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -2047,7 +2047,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="46"/>
+      <c r="A10" s="44"/>
       <c r="B10" s="5" t="s">
         <v>20</v>
       </c>
@@ -2086,7 +2086,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="47"/>
+      <c r="A11" s="45"/>
       <c r="B11" s="5" t="s">
         <v>19</v>
       </c>
@@ -2122,21 +2122,21 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="39"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="39"/>
+      <c r="A12" s="42"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="40" t="s">
+      <c r="A13" s="46" t="s">
         <v>0</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -2177,7 +2177,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="41"/>
+      <c r="A14" s="47"/>
       <c r="B14" s="4" t="s">
         <v>20</v>
       </c>
@@ -2216,7 +2216,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="41"/>
+      <c r="A15" s="47"/>
       <c r="B15" s="4" t="s">
         <v>19</v>
       </c>
@@ -2252,21 +2252,21 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="39"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39"/>
+      <c r="A16" s="42"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="39" t="s">
         <v>29</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -2307,7 +2307,7 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="43"/>
+      <c r="A18" s="40"/>
       <c r="B18" s="5" t="s">
         <v>20</v>
       </c>
@@ -2346,7 +2346,7 @@
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="44"/>
+      <c r="A19" s="41"/>
       <c r="B19" s="5" t="s">
         <v>19</v>
       </c>
@@ -2382,21 +2382,21 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="39"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="39"/>
-      <c r="L20" s="39"/>
+      <c r="A20" s="42"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="42"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="46" t="s">
         <v>1</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -2437,7 +2437,7 @@
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="41"/>
+      <c r="A22" s="47"/>
       <c r="B22" s="4" t="s">
         <v>20</v>
       </c>
@@ -2476,7 +2476,7 @@
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="41"/>
+      <c r="A23" s="47"/>
       <c r="B23" s="4" t="s">
         <v>19</v>
       </c>
@@ -2512,21 +2512,21 @@
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="39"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="39"/>
-      <c r="L24" s="39"/>
+      <c r="A24" s="42"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="42"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="40" t="s">
+      <c r="A25" s="46" t="s">
         <v>40</v>
       </c>
       <c r="B25" s="4" t="s">
@@ -2567,7 +2567,7 @@
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="41"/>
+      <c r="A26" s="47"/>
       <c r="B26" s="4" t="s">
         <v>20</v>
       </c>
@@ -2606,7 +2606,7 @@
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="41"/>
+      <c r="A27" s="47"/>
       <c r="B27" s="4" t="s">
         <v>19</v>
       </c>
@@ -2642,21 +2642,21 @@
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="39"/>
-      <c r="B28" s="39"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="39"/>
-      <c r="K28" s="39"/>
-      <c r="L28" s="39"/>
+      <c r="A28" s="42"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="42"/>
+      <c r="K28" s="42"/>
+      <c r="L28" s="42"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="40" t="s">
+      <c r="A29" s="46" t="s">
         <v>2</v>
       </c>
       <c r="B29" s="4" t="s">
@@ -2697,7 +2697,7 @@
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="41"/>
+      <c r="A30" s="47"/>
       <c r="B30" s="4" t="s">
         <v>20</v>
       </c>
@@ -2736,7 +2736,7 @@
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="41"/>
+      <c r="A31" s="47"/>
       <c r="B31" s="4" t="s">
         <v>19</v>
       </c>
@@ -2772,21 +2772,21 @@
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="39"/>
-      <c r="B32" s="39"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="39"/>
-      <c r="J32" s="39"/>
-      <c r="K32" s="39"/>
-      <c r="L32" s="39"/>
+      <c r="A32" s="42"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="42"/>
+      <c r="L32" s="42"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="40" t="s">
+      <c r="A33" s="46" t="s">
         <v>3</v>
       </c>
       <c r="B33" s="4" t="s">
@@ -2827,7 +2827,7 @@
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="41"/>
+      <c r="A34" s="47"/>
       <c r="B34" s="4" t="s">
         <v>20</v>
       </c>
@@ -2866,7 +2866,7 @@
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" s="41"/>
+      <c r="A35" s="47"/>
       <c r="B35" s="4" t="s">
         <v>19</v>
       </c>
@@ -2902,21 +2902,21 @@
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="39"/>
-      <c r="B36" s="39"/>
-      <c r="C36" s="39"/>
-      <c r="D36" s="39"/>
-      <c r="E36" s="39"/>
-      <c r="F36" s="39"/>
-      <c r="G36" s="39"/>
-      <c r="H36" s="39"/>
-      <c r="I36" s="39"/>
-      <c r="J36" s="39"/>
-      <c r="K36" s="39"/>
-      <c r="L36" s="39"/>
+      <c r="A36" s="42"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="42"/>
+      <c r="I36" s="42"/>
+      <c r="J36" s="42"/>
+      <c r="K36" s="42"/>
+      <c r="L36" s="42"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="42" t="s">
+      <c r="A37" s="39" t="s">
         <v>26</v>
       </c>
       <c r="B37" s="5" t="s">
@@ -2957,7 +2957,7 @@
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" s="43"/>
+      <c r="A38" s="40"/>
       <c r="B38" s="5" t="s">
         <v>20</v>
       </c>
@@ -2973,7 +2973,7 @@
       <c r="L38" s="8"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="44"/>
+      <c r="A39" s="41"/>
       <c r="B39" s="5" t="s">
         <v>19</v>
       </c>
@@ -3009,21 +3009,21 @@
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="39"/>
-      <c r="B40" s="39"/>
-      <c r="C40" s="39"/>
-      <c r="D40" s="39"/>
-      <c r="E40" s="39"/>
-      <c r="F40" s="39"/>
-      <c r="G40" s="39"/>
-      <c r="H40" s="39"/>
-      <c r="I40" s="39"/>
-      <c r="J40" s="39"/>
-      <c r="K40" s="39"/>
-      <c r="L40" s="39"/>
+      <c r="A40" s="42"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="42"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="42"/>
+      <c r="G40" s="42"/>
+      <c r="H40" s="42"/>
+      <c r="I40" s="42"/>
+      <c r="J40" s="42"/>
+      <c r="K40" s="42"/>
+      <c r="L40" s="42"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" s="40" t="s">
+      <c r="A41" s="46" t="s">
         <v>4</v>
       </c>
       <c r="B41" s="4" t="s">
@@ -3064,7 +3064,7 @@
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" s="41"/>
+      <c r="A42" s="47"/>
       <c r="B42" s="4" t="s">
         <v>19</v>
       </c>
@@ -3100,7 +3100,7 @@
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="42"/>
+      <c r="A43" s="39"/>
       <c r="B43" s="5" t="s">
         <v>18</v>
       </c>
@@ -3142,7 +3142,7 @@
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A44" s="43"/>
+      <c r="A44" s="40"/>
       <c r="B44" s="5" t="s">
         <v>20</v>
       </c>
@@ -3181,7 +3181,7 @@
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" s="44"/>
+      <c r="A45" s="41"/>
       <c r="B45" s="5" t="s">
         <v>19</v>
       </c>
@@ -3217,23 +3217,23 @@
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" s="39"/>
-      <c r="B46" s="39"/>
-      <c r="C46" s="39"/>
-      <c r="D46" s="39"/>
-      <c r="E46" s="39"/>
-      <c r="F46" s="39"/>
-      <c r="G46" s="39"/>
-      <c r="H46" s="39"/>
-      <c r="I46" s="39"/>
-      <c r="J46" s="39"/>
-      <c r="K46" s="39"/>
-      <c r="L46" s="39"/>
+      <c r="A46" s="42"/>
+      <c r="B46" s="42"/>
+      <c r="C46" s="42"/>
+      <c r="D46" s="42"/>
+      <c r="E46" s="42"/>
+      <c r="F46" s="42"/>
+      <c r="G46" s="42"/>
+      <c r="H46" s="42"/>
+      <c r="I46" s="42"/>
+      <c r="J46" s="42"/>
+      <c r="K46" s="42"/>
+      <c r="L46" s="42"/>
       <c r="N46" s="11"/>
       <c r="O46" s="11"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47" s="40" t="s">
+      <c r="A47" s="46" t="s">
         <v>5</v>
       </c>
       <c r="B47" s="4" t="s">
@@ -3274,7 +3274,7 @@
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48" s="41"/>
+      <c r="A48" s="47"/>
       <c r="B48" s="4" t="s">
         <v>20</v>
       </c>
@@ -3294,7 +3294,7 @@
       <c r="L48" s="8"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A49" s="41"/>
+      <c r="A49" s="47"/>
       <c r="B49" s="4" t="s">
         <v>19</v>
       </c>
@@ -3330,7 +3330,7 @@
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A50" s="42"/>
+      <c r="A50" s="39"/>
       <c r="B50" s="5" t="s">
         <v>18</v>
       </c>
@@ -3372,7 +3372,7 @@
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A51" s="43"/>
+      <c r="A51" s="40"/>
       <c r="B51" s="5" t="s">
         <v>20</v>
       </c>
@@ -3411,7 +3411,7 @@
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A52" s="44"/>
+      <c r="A52" s="41"/>
       <c r="B52" s="5" t="s">
         <v>19</v>
       </c>
@@ -3447,21 +3447,21 @@
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A53" s="39"/>
-      <c r="B53" s="39"/>
-      <c r="C53" s="39"/>
-      <c r="D53" s="39"/>
-      <c r="E53" s="39"/>
-      <c r="F53" s="39"/>
-      <c r="G53" s="39"/>
-      <c r="H53" s="39"/>
-      <c r="I53" s="39"/>
-      <c r="J53" s="39"/>
-      <c r="K53" s="39"/>
-      <c r="L53" s="39"/>
+      <c r="A53" s="42"/>
+      <c r="B53" s="42"/>
+      <c r="C53" s="42"/>
+      <c r="D53" s="42"/>
+      <c r="E53" s="42"/>
+      <c r="F53" s="42"/>
+      <c r="G53" s="42"/>
+      <c r="H53" s="42"/>
+      <c r="I53" s="42"/>
+      <c r="J53" s="42"/>
+      <c r="K53" s="42"/>
+      <c r="L53" s="42"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A54" s="40" t="s">
+      <c r="A54" s="46" t="s">
         <v>17</v>
       </c>
       <c r="B54" s="4" t="s">
@@ -3505,7 +3505,7 @@
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A55" s="41"/>
+      <c r="A55" s="47"/>
       <c r="B55" s="4" t="s">
         <v>20</v>
       </c>
@@ -3544,7 +3544,7 @@
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A56" s="41"/>
+      <c r="A56" s="47"/>
       <c r="B56" s="4" t="s">
         <v>19</v>
       </c>
@@ -3580,21 +3580,21 @@
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A57" s="39"/>
-      <c r="B57" s="39"/>
-      <c r="C57" s="39"/>
-      <c r="D57" s="39"/>
-      <c r="E57" s="39"/>
-      <c r="F57" s="39"/>
-      <c r="G57" s="39"/>
-      <c r="H57" s="39"/>
-      <c r="I57" s="39"/>
-      <c r="J57" s="39"/>
-      <c r="K57" s="39"/>
-      <c r="L57" s="39"/>
+      <c r="A57" s="42"/>
+      <c r="B57" s="42"/>
+      <c r="C57" s="42"/>
+      <c r="D57" s="42"/>
+      <c r="E57" s="42"/>
+      <c r="F57" s="42"/>
+      <c r="G57" s="42"/>
+      <c r="H57" s="42"/>
+      <c r="I57" s="42"/>
+      <c r="J57" s="42"/>
+      <c r="K57" s="42"/>
+      <c r="L57" s="42"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A58" s="40" t="s">
+      <c r="A58" s="46" t="s">
         <v>6</v>
       </c>
       <c r="B58" s="4" t="s">
@@ -3635,7 +3635,7 @@
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A59" s="41"/>
+      <c r="A59" s="47"/>
       <c r="B59" s="4" t="s">
         <v>20</v>
       </c>
@@ -3674,7 +3674,7 @@
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A60" s="41"/>
+      <c r="A60" s="47"/>
       <c r="B60" s="4" t="s">
         <v>21</v>
       </c>
@@ -3690,7 +3690,7 @@
       <c r="L60" s="8"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A61" s="41"/>
+      <c r="A61" s="47"/>
       <c r="B61" s="4" t="s">
         <v>19</v>
       </c>
@@ -3726,21 +3726,21 @@
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A62" s="39"/>
-      <c r="B62" s="39"/>
-      <c r="C62" s="39"/>
-      <c r="D62" s="39"/>
-      <c r="E62" s="39"/>
-      <c r="F62" s="39"/>
-      <c r="G62" s="39"/>
-      <c r="H62" s="39"/>
-      <c r="I62" s="39"/>
-      <c r="J62" s="39"/>
-      <c r="K62" s="39"/>
-      <c r="L62" s="39"/>
+      <c r="A62" s="42"/>
+      <c r="B62" s="42"/>
+      <c r="C62" s="42"/>
+      <c r="D62" s="42"/>
+      <c r="E62" s="42"/>
+      <c r="F62" s="42"/>
+      <c r="G62" s="42"/>
+      <c r="H62" s="42"/>
+      <c r="I62" s="42"/>
+      <c r="J62" s="42"/>
+      <c r="K62" s="42"/>
+      <c r="L62" s="42"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A63" s="42" t="s">
+      <c r="A63" s="39" t="s">
         <v>38</v>
       </c>
       <c r="B63" s="5" t="s">
@@ -3781,7 +3781,7 @@
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A64" s="43"/>
+      <c r="A64" s="40"/>
       <c r="B64" s="5" t="s">
         <v>20</v>
       </c>
@@ -3820,7 +3820,7 @@
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A65" s="43"/>
+      <c r="A65" s="40"/>
       <c r="B65" s="5" t="s">
         <v>21</v>
       </c>
@@ -3836,7 +3836,7 @@
       <c r="L65" s="8"/>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A66" s="44"/>
+      <c r="A66" s="41"/>
       <c r="B66" s="5" t="s">
         <v>19</v>
       </c>
@@ -3872,21 +3872,21 @@
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A67" s="39"/>
-      <c r="B67" s="39"/>
-      <c r="C67" s="39"/>
-      <c r="D67" s="39"/>
-      <c r="E67" s="39"/>
-      <c r="F67" s="39"/>
-      <c r="G67" s="39"/>
-      <c r="H67" s="39"/>
-      <c r="I67" s="39"/>
-      <c r="J67" s="39"/>
-      <c r="K67" s="39"/>
-      <c r="L67" s="39"/>
+      <c r="A67" s="42"/>
+      <c r="B67" s="42"/>
+      <c r="C67" s="42"/>
+      <c r="D67" s="42"/>
+      <c r="E67" s="42"/>
+      <c r="F67" s="42"/>
+      <c r="G67" s="42"/>
+      <c r="H67" s="42"/>
+      <c r="I67" s="42"/>
+      <c r="J67" s="42"/>
+      <c r="K67" s="42"/>
+      <c r="L67" s="42"/>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A68" s="40" t="s">
+      <c r="A68" s="46" t="s">
         <v>7</v>
       </c>
       <c r="B68" s="4" t="s">
@@ -3927,7 +3927,7 @@
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A69" s="41"/>
+      <c r="A69" s="47"/>
       <c r="B69" s="4" t="s">
         <v>20</v>
       </c>
@@ -3963,7 +3963,7 @@
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A70" s="41"/>
+      <c r="A70" s="47"/>
       <c r="B70" s="4" t="s">
         <v>21</v>
       </c>
@@ -3979,7 +3979,7 @@
       <c r="L70" s="8"/>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A71" s="41"/>
+      <c r="A71" s="47"/>
       <c r="B71" s="4" t="s">
         <v>19</v>
       </c>
@@ -4015,21 +4015,21 @@
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A72" s="39"/>
-      <c r="B72" s="39"/>
-      <c r="C72" s="39"/>
-      <c r="D72" s="39"/>
-      <c r="E72" s="39"/>
-      <c r="F72" s="39"/>
-      <c r="G72" s="39"/>
-      <c r="H72" s="39"/>
-      <c r="I72" s="39"/>
-      <c r="J72" s="39"/>
-      <c r="K72" s="39"/>
-      <c r="L72" s="39"/>
+      <c r="A72" s="42"/>
+      <c r="B72" s="42"/>
+      <c r="C72" s="42"/>
+      <c r="D72" s="42"/>
+      <c r="E72" s="42"/>
+      <c r="F72" s="42"/>
+      <c r="G72" s="42"/>
+      <c r="H72" s="42"/>
+      <c r="I72" s="42"/>
+      <c r="J72" s="42"/>
+      <c r="K72" s="42"/>
+      <c r="L72" s="42"/>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A73" s="40" t="s">
+      <c r="A73" s="46" t="s">
         <v>8</v>
       </c>
       <c r="B73" s="4" t="s">
@@ -4070,7 +4070,7 @@
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A74" s="41"/>
+      <c r="A74" s="47"/>
       <c r="B74" s="4" t="s">
         <v>19</v>
       </c>
@@ -4106,7 +4106,7 @@
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A75" s="42"/>
+      <c r="A75" s="39"/>
       <c r="B75" s="5" t="s">
         <v>18</v>
       </c>
@@ -4145,7 +4145,7 @@
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A76" s="43"/>
+      <c r="A76" s="40"/>
       <c r="B76" s="5" t="s">
         <v>20</v>
       </c>
@@ -4185,7 +4185,7 @@
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A77" s="44"/>
+      <c r="A77" s="41"/>
       <c r="B77" s="5" t="s">
         <v>19</v>
       </c>
@@ -4222,21 +4222,21 @@
       <c r="N77" s="11"/>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A78" s="39"/>
-      <c r="B78" s="39"/>
-      <c r="C78" s="39"/>
-      <c r="D78" s="39"/>
-      <c r="E78" s="39"/>
-      <c r="F78" s="39"/>
-      <c r="G78" s="39"/>
-      <c r="H78" s="39"/>
-      <c r="I78" s="39"/>
-      <c r="J78" s="39"/>
-      <c r="K78" s="39"/>
-      <c r="L78" s="39"/>
+      <c r="A78" s="42"/>
+      <c r="B78" s="42"/>
+      <c r="C78" s="42"/>
+      <c r="D78" s="42"/>
+      <c r="E78" s="42"/>
+      <c r="F78" s="42"/>
+      <c r="G78" s="42"/>
+      <c r="H78" s="42"/>
+      <c r="I78" s="42"/>
+      <c r="J78" s="42"/>
+      <c r="K78" s="42"/>
+      <c r="L78" s="42"/>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A79" s="42" t="s">
+      <c r="A79" s="39" t="s">
         <v>25</v>
       </c>
       <c r="B79" s="5" t="s">
@@ -4277,7 +4277,7 @@
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A80" s="43"/>
+      <c r="A80" s="40"/>
       <c r="B80" s="5" t="s">
         <v>20</v>
       </c>
@@ -4316,7 +4316,7 @@
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A81" s="44"/>
+      <c r="A81" s="41"/>
       <c r="B81" s="5" t="s">
         <v>19</v>
       </c>
@@ -4352,21 +4352,21 @@
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A82" s="39"/>
-      <c r="B82" s="39"/>
-      <c r="C82" s="39"/>
-      <c r="D82" s="39"/>
-      <c r="E82" s="39"/>
-      <c r="F82" s="39"/>
-      <c r="G82" s="39"/>
-      <c r="H82" s="39"/>
-      <c r="I82" s="39"/>
-      <c r="J82" s="39"/>
-      <c r="K82" s="39"/>
-      <c r="L82" s="39"/>
+      <c r="A82" s="42"/>
+      <c r="B82" s="42"/>
+      <c r="C82" s="42"/>
+      <c r="D82" s="42"/>
+      <c r="E82" s="42"/>
+      <c r="F82" s="42"/>
+      <c r="G82" s="42"/>
+      <c r="H82" s="42"/>
+      <c r="I82" s="42"/>
+      <c r="J82" s="42"/>
+      <c r="K82" s="42"/>
+      <c r="L82" s="42"/>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A83" s="40" t="s">
+      <c r="A83" s="46" t="s">
         <v>9</v>
       </c>
       <c r="B83" s="4" t="s">
@@ -4389,7 +4389,7 @@
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A84" s="41"/>
+      <c r="A84" s="47"/>
       <c r="B84" s="4" t="s">
         <v>20</v>
       </c>
@@ -4405,7 +4405,7 @@
       <c r="L84" s="8"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A85" s="41"/>
+      <c r="A85" s="47"/>
       <c r="B85" s="4" t="s">
         <v>19</v>
       </c>
@@ -4423,18 +4423,18 @@
       <c r="L85" s="8"/>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A86" s="39"/>
-      <c r="B86" s="39"/>
-      <c r="C86" s="39"/>
-      <c r="D86" s="39"/>
-      <c r="E86" s="39"/>
-      <c r="F86" s="39"/>
-      <c r="G86" s="39"/>
-      <c r="H86" s="39"/>
-      <c r="I86" s="39"/>
-      <c r="J86" s="39"/>
-      <c r="K86" s="39"/>
-      <c r="L86" s="39"/>
+      <c r="A86" s="42"/>
+      <c r="B86" s="42"/>
+      <c r="C86" s="42"/>
+      <c r="D86" s="42"/>
+      <c r="E86" s="42"/>
+      <c r="F86" s="42"/>
+      <c r="G86" s="42"/>
+      <c r="H86" s="42"/>
+      <c r="I86" s="42"/>
+      <c r="J86" s="42"/>
+      <c r="K86" s="42"/>
+      <c r="L86" s="42"/>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C89" s="9" t="s">
@@ -4478,15 +4478,22 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="A36:L36"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="A8:L8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A16:L16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="A86:L86"/>
+    <mergeCell ref="A67:L67"/>
+    <mergeCell ref="A53:L53"/>
+    <mergeCell ref="A58:A61"/>
+    <mergeCell ref="A68:A71"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="A83:A85"/>
+    <mergeCell ref="A82:L82"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="A78:L78"/>
+    <mergeCell ref="A79:A81"/>
+    <mergeCell ref="A62:L62"/>
+    <mergeCell ref="A75:A77"/>
+    <mergeCell ref="A72:L72"/>
+    <mergeCell ref="A63:A66"/>
+    <mergeCell ref="A57:L57"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A28:L28"/>
     <mergeCell ref="A32:L32"/>
@@ -4503,22 +4510,15 @@
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A21:A23"/>
     <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A86:L86"/>
-    <mergeCell ref="A67:L67"/>
-    <mergeCell ref="A53:L53"/>
-    <mergeCell ref="A58:A61"/>
-    <mergeCell ref="A68:A71"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="A83:A85"/>
-    <mergeCell ref="A82:L82"/>
-    <mergeCell ref="A54:A56"/>
-    <mergeCell ref="A78:L78"/>
-    <mergeCell ref="A79:A81"/>
-    <mergeCell ref="A62:L62"/>
-    <mergeCell ref="A75:A77"/>
-    <mergeCell ref="A72:L72"/>
-    <mergeCell ref="A63:A66"/>
-    <mergeCell ref="A57:L57"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A36:L36"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="A8:L8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A16:L16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A47:A49"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6258,7 +6258,7 @@
   <dimension ref="B1:M39"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -7135,8 +7135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{644BB2B3-4C2F-4A18-8AAB-56815E9808E3}">
   <dimension ref="B2:U16"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView showGridLines="0" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -7239,7 +7239,7 @@
       </c>
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="46" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="18" t="s">
@@ -7301,7 +7301,7 @@
       </c>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B5" s="40"/>
+      <c r="B5" s="46"/>
       <c r="C5" s="18" t="s">
         <v>20</v>
       </c>
@@ -7361,7 +7361,7 @@
       </c>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="46" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="18" t="s">
@@ -7423,7 +7423,7 @@
       </c>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B7" s="40"/>
+      <c r="B7" s="46"/>
       <c r="C7" s="18" t="s">
         <v>20</v>
       </c>
@@ -7483,7 +7483,7 @@
       </c>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="46" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="18" t="s">
@@ -7545,7 +7545,7 @@
       </c>
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B9" s="40"/>
+      <c r="B9" s="46"/>
       <c r="C9" s="18" t="s">
         <v>20</v>
       </c>
@@ -7605,7 +7605,7 @@
       </c>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="46" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="18" t="s">
@@ -7667,7 +7667,7 @@
       </c>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B11" s="40"/>
+      <c r="B11" s="46"/>
       <c r="C11" s="18" t="s">
         <v>20</v>
       </c>
@@ -7727,7 +7727,7 @@
       </c>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="46" t="s">
         <v>100</v>
       </c>
       <c r="C12" s="18" t="s">
@@ -7789,7 +7789,7 @@
       </c>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B13" s="40"/>
+      <c r="B13" s="46"/>
       <c r="C13" s="18" t="s">
         <v>20</v>
       </c>
@@ -7883,8 +7883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AFE7F9D-67B7-411B-96BF-FE0DEC5ACDF9}">
   <dimension ref="B2:Q13"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -8711,7 +8711,7 @@
   <dimension ref="B2:H25"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -9024,8 +9024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{094BC731-176F-4990-A9D1-30262EF686F7}">
   <dimension ref="B2:Q20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -9079,7 +9079,7 @@
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="43" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -9111,7 +9111,7 @@
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="46"/>
+      <c r="B5" s="44"/>
       <c r="C5" s="5" t="s">
         <v>20</v>
       </c>
@@ -9141,7 +9141,7 @@
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="47"/>
+      <c r="B6" s="45"/>
       <c r="C6" s="5" t="s">
         <v>21</v>
       </c>
@@ -9162,7 +9162,7 @@
       <c r="Q6" s="36"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="43" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="5" t="s">
@@ -9199,7 +9199,7 @@
       <c r="Q7" s="36"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="46"/>
+      <c r="B8" s="44"/>
       <c r="C8" s="5" t="s">
         <v>20</v>
       </c>
@@ -9234,7 +9234,7 @@
       <c r="Q8" s="36"/>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B9" s="47"/>
+      <c r="B9" s="45"/>
       <c r="C9" s="5" t="s">
         <v>21</v>
       </c>
@@ -9255,7 +9255,7 @@
       <c r="Q9" s="36"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="43" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="5" t="s">
@@ -9292,7 +9292,7 @@
       <c r="Q10" s="36"/>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B11" s="46"/>
+      <c r="B11" s="44"/>
       <c r="C11" s="5" t="s">
         <v>20</v>
       </c>
@@ -9327,7 +9327,7 @@
       <c r="Q11" s="36"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B12" s="47"/>
+      <c r="B12" s="45"/>
       <c r="C12" s="5" t="s">
         <v>21</v>
       </c>
@@ -9348,7 +9348,7 @@
       <c r="Q12" s="36"/>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B13" s="45" t="s">
+      <c r="B13" s="43" t="s">
         <v>207</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -9385,7 +9385,7 @@
       <c r="Q13" s="36"/>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B14" s="46"/>
+      <c r="B14" s="44"/>
       <c r="C14" s="5" t="s">
         <v>20</v>
       </c>
@@ -9420,7 +9420,7 @@
       <c r="Q14" s="36"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="47"/>
+      <c r="B15" s="45"/>
       <c r="C15" s="5" t="s">
         <v>21</v>
       </c>
@@ -9483,8 +9483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B27E5DE-3D68-418B-B640-C6E0806B77FB}">
   <dimension ref="B2:U3"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+    <sheetView showGridLines="0" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/VDO测试结果统计 ver4.14.xlsx
+++ b/VDO测试结果统计 ver4.14.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\【study】\毕业设计\intel-vdo-note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2219E3E-4BA0-4491-BAB0-FD602C781D85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DC0DDFD-E831-43CF-AA97-19302D2BB336}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9372" yWindow="684" windowWidth="13524" windowHeight="11472" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-2316" yWindow="468" windowWidth="14412" windowHeight="11472" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="测试1-benchmark" sheetId="1" r:id="rId1"/>
@@ -1374,6 +1374,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1383,9 +1392,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1393,12 +1399,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1769,21 +1769,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="42"/>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
+      <c r="A1" s="39"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="45" t="s">
         <v>22</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1824,7 +1824,7 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="44"/>
+      <c r="A3" s="46"/>
       <c r="B3" s="4" t="s">
         <v>20</v>
       </c>
@@ -1863,7 +1863,7 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="45"/>
+      <c r="A4" s="47"/>
       <c r="B4" s="4" t="s">
         <v>19</v>
       </c>
@@ -1899,7 +1899,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="43"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="5" t="s">
         <v>18</v>
       </c>
@@ -1938,7 +1938,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="44"/>
+      <c r="A6" s="46"/>
       <c r="B6" s="5" t="s">
         <v>20</v>
       </c>
@@ -1955,7 +1955,7 @@
       <c r="N6" s="10"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="45"/>
+      <c r="A7" s="47"/>
       <c r="B7" s="5" t="s">
         <v>19</v>
       </c>
@@ -1992,21 +1992,21 @@
       <c r="N7" s="10"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="42"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
+      <c r="A8" s="39"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="45" t="s">
         <v>28</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -2047,7 +2047,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="44"/>
+      <c r="A10" s="46"/>
       <c r="B10" s="5" t="s">
         <v>20</v>
       </c>
@@ -2086,7 +2086,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="45"/>
+      <c r="A11" s="47"/>
       <c r="B11" s="5" t="s">
         <v>19</v>
       </c>
@@ -2122,21 +2122,21 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="42"/>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="42"/>
-      <c r="L12" s="42"/>
+      <c r="A12" s="39"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="46" t="s">
+      <c r="A13" s="40" t="s">
         <v>0</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -2177,7 +2177,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="47"/>
+      <c r="A14" s="41"/>
       <c r="B14" s="4" t="s">
         <v>20</v>
       </c>
@@ -2216,7 +2216,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="47"/>
+      <c r="A15" s="41"/>
       <c r="B15" s="4" t="s">
         <v>19</v>
       </c>
@@ -2252,21 +2252,21 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="42"/>
-      <c r="B16" s="42"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
+      <c r="A16" s="39"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="39" t="s">
+      <c r="A17" s="42" t="s">
         <v>29</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -2307,7 +2307,7 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="40"/>
+      <c r="A18" s="43"/>
       <c r="B18" s="5" t="s">
         <v>20</v>
       </c>
@@ -2346,7 +2346,7 @@
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="41"/>
+      <c r="A19" s="44"/>
       <c r="B19" s="5" t="s">
         <v>19</v>
       </c>
@@ -2382,21 +2382,21 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="42"/>
-      <c r="B20" s="42"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="42"/>
+      <c r="A20" s="39"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="46" t="s">
+      <c r="A21" s="40" t="s">
         <v>1</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -2437,7 +2437,7 @@
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="47"/>
+      <c r="A22" s="41"/>
       <c r="B22" s="4" t="s">
         <v>20</v>
       </c>
@@ -2476,7 +2476,7 @@
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="47"/>
+      <c r="A23" s="41"/>
       <c r="B23" s="4" t="s">
         <v>19</v>
       </c>
@@ -2512,21 +2512,21 @@
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="42"/>
-      <c r="B24" s="42"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="42"/>
-      <c r="L24" s="42"/>
+      <c r="A24" s="39"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="39"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="46" t="s">
+      <c r="A25" s="40" t="s">
         <v>40</v>
       </c>
       <c r="B25" s="4" t="s">
@@ -2567,7 +2567,7 @@
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="47"/>
+      <c r="A26" s="41"/>
       <c r="B26" s="4" t="s">
         <v>20</v>
       </c>
@@ -2606,7 +2606,7 @@
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="47"/>
+      <c r="A27" s="41"/>
       <c r="B27" s="4" t="s">
         <v>19</v>
       </c>
@@ -2642,21 +2642,21 @@
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="42"/>
-      <c r="B28" s="42"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="42"/>
-      <c r="I28" s="42"/>
-      <c r="J28" s="42"/>
-      <c r="K28" s="42"/>
-      <c r="L28" s="42"/>
+      <c r="A28" s="39"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="39"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="46" t="s">
+      <c r="A29" s="40" t="s">
         <v>2</v>
       </c>
       <c r="B29" s="4" t="s">
@@ -2697,7 +2697,7 @@
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="47"/>
+      <c r="A30" s="41"/>
       <c r="B30" s="4" t="s">
         <v>20</v>
       </c>
@@ -2736,7 +2736,7 @@
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="47"/>
+      <c r="A31" s="41"/>
       <c r="B31" s="4" t="s">
         <v>19</v>
       </c>
@@ -2772,21 +2772,21 @@
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="42"/>
-      <c r="B32" s="42"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="42"/>
-      <c r="J32" s="42"/>
-      <c r="K32" s="42"/>
-      <c r="L32" s="42"/>
+      <c r="A32" s="39"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="39"/>
+      <c r="L32" s="39"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="46" t="s">
+      <c r="A33" s="40" t="s">
         <v>3</v>
       </c>
       <c r="B33" s="4" t="s">
@@ -2827,7 +2827,7 @@
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="47"/>
+      <c r="A34" s="41"/>
       <c r="B34" s="4" t="s">
         <v>20</v>
       </c>
@@ -2866,7 +2866,7 @@
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" s="47"/>
+      <c r="A35" s="41"/>
       <c r="B35" s="4" t="s">
         <v>19</v>
       </c>
@@ -2902,21 +2902,21 @@
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="42"/>
-      <c r="B36" s="42"/>
-      <c r="C36" s="42"/>
-      <c r="D36" s="42"/>
-      <c r="E36" s="42"/>
-      <c r="F36" s="42"/>
-      <c r="G36" s="42"/>
-      <c r="H36" s="42"/>
-      <c r="I36" s="42"/>
-      <c r="J36" s="42"/>
-      <c r="K36" s="42"/>
-      <c r="L36" s="42"/>
+      <c r="A36" s="39"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="39"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="39"/>
+      <c r="I36" s="39"/>
+      <c r="J36" s="39"/>
+      <c r="K36" s="39"/>
+      <c r="L36" s="39"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="39" t="s">
+      <c r="A37" s="42" t="s">
         <v>26</v>
       </c>
       <c r="B37" s="5" t="s">
@@ -2957,7 +2957,7 @@
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" s="40"/>
+      <c r="A38" s="43"/>
       <c r="B38" s="5" t="s">
         <v>20</v>
       </c>
@@ -2973,7 +2973,7 @@
       <c r="L38" s="8"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="41"/>
+      <c r="A39" s="44"/>
       <c r="B39" s="5" t="s">
         <v>19</v>
       </c>
@@ -3009,21 +3009,21 @@
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="42"/>
-      <c r="B40" s="42"/>
-      <c r="C40" s="42"/>
-      <c r="D40" s="42"/>
-      <c r="E40" s="42"/>
-      <c r="F40" s="42"/>
-      <c r="G40" s="42"/>
-      <c r="H40" s="42"/>
-      <c r="I40" s="42"/>
-      <c r="J40" s="42"/>
-      <c r="K40" s="42"/>
-      <c r="L40" s="42"/>
+      <c r="A40" s="39"/>
+      <c r="B40" s="39"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="39"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="39"/>
+      <c r="I40" s="39"/>
+      <c r="J40" s="39"/>
+      <c r="K40" s="39"/>
+      <c r="L40" s="39"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" s="46" t="s">
+      <c r="A41" s="40" t="s">
         <v>4</v>
       </c>
       <c r="B41" s="4" t="s">
@@ -3064,7 +3064,7 @@
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" s="47"/>
+      <c r="A42" s="41"/>
       <c r="B42" s="4" t="s">
         <v>19</v>
       </c>
@@ -3100,7 +3100,7 @@
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="39"/>
+      <c r="A43" s="42"/>
       <c r="B43" s="5" t="s">
         <v>18</v>
       </c>
@@ -3142,7 +3142,7 @@
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A44" s="40"/>
+      <c r="A44" s="43"/>
       <c r="B44" s="5" t="s">
         <v>20</v>
       </c>
@@ -3181,7 +3181,7 @@
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" s="41"/>
+      <c r="A45" s="44"/>
       <c r="B45" s="5" t="s">
         <v>19</v>
       </c>
@@ -3217,23 +3217,23 @@
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" s="42"/>
-      <c r="B46" s="42"/>
-      <c r="C46" s="42"/>
-      <c r="D46" s="42"/>
-      <c r="E46" s="42"/>
-      <c r="F46" s="42"/>
-      <c r="G46" s="42"/>
-      <c r="H46" s="42"/>
-      <c r="I46" s="42"/>
-      <c r="J46" s="42"/>
-      <c r="K46" s="42"/>
-      <c r="L46" s="42"/>
+      <c r="A46" s="39"/>
+      <c r="B46" s="39"/>
+      <c r="C46" s="39"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="39"/>
+      <c r="F46" s="39"/>
+      <c r="G46" s="39"/>
+      <c r="H46" s="39"/>
+      <c r="I46" s="39"/>
+      <c r="J46" s="39"/>
+      <c r="K46" s="39"/>
+      <c r="L46" s="39"/>
       <c r="N46" s="11"/>
       <c r="O46" s="11"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47" s="46" t="s">
+      <c r="A47" s="40" t="s">
         <v>5</v>
       </c>
       <c r="B47" s="4" t="s">
@@ -3274,7 +3274,7 @@
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48" s="47"/>
+      <c r="A48" s="41"/>
       <c r="B48" s="4" t="s">
         <v>20</v>
       </c>
@@ -3294,7 +3294,7 @@
       <c r="L48" s="8"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A49" s="47"/>
+      <c r="A49" s="41"/>
       <c r="B49" s="4" t="s">
         <v>19</v>
       </c>
@@ -3330,7 +3330,7 @@
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A50" s="39"/>
+      <c r="A50" s="42"/>
       <c r="B50" s="5" t="s">
         <v>18</v>
       </c>
@@ -3372,7 +3372,7 @@
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A51" s="40"/>
+      <c r="A51" s="43"/>
       <c r="B51" s="5" t="s">
         <v>20</v>
       </c>
@@ -3411,7 +3411,7 @@
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A52" s="41"/>
+      <c r="A52" s="44"/>
       <c r="B52" s="5" t="s">
         <v>19</v>
       </c>
@@ -3447,21 +3447,21 @@
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A53" s="42"/>
-      <c r="B53" s="42"/>
-      <c r="C53" s="42"/>
-      <c r="D53" s="42"/>
-      <c r="E53" s="42"/>
-      <c r="F53" s="42"/>
-      <c r="G53" s="42"/>
-      <c r="H53" s="42"/>
-      <c r="I53" s="42"/>
-      <c r="J53" s="42"/>
-      <c r="K53" s="42"/>
-      <c r="L53" s="42"/>
+      <c r="A53" s="39"/>
+      <c r="B53" s="39"/>
+      <c r="C53" s="39"/>
+      <c r="D53" s="39"/>
+      <c r="E53" s="39"/>
+      <c r="F53" s="39"/>
+      <c r="G53" s="39"/>
+      <c r="H53" s="39"/>
+      <c r="I53" s="39"/>
+      <c r="J53" s="39"/>
+      <c r="K53" s="39"/>
+      <c r="L53" s="39"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A54" s="46" t="s">
+      <c r="A54" s="40" t="s">
         <v>17</v>
       </c>
       <c r="B54" s="4" t="s">
@@ -3505,7 +3505,7 @@
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A55" s="47"/>
+      <c r="A55" s="41"/>
       <c r="B55" s="4" t="s">
         <v>20</v>
       </c>
@@ -3544,7 +3544,7 @@
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A56" s="47"/>
+      <c r="A56" s="41"/>
       <c r="B56" s="4" t="s">
         <v>19</v>
       </c>
@@ -3580,21 +3580,21 @@
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A57" s="42"/>
-      <c r="B57" s="42"/>
-      <c r="C57" s="42"/>
-      <c r="D57" s="42"/>
-      <c r="E57" s="42"/>
-      <c r="F57" s="42"/>
-      <c r="G57" s="42"/>
-      <c r="H57" s="42"/>
-      <c r="I57" s="42"/>
-      <c r="J57" s="42"/>
-      <c r="K57" s="42"/>
-      <c r="L57" s="42"/>
+      <c r="A57" s="39"/>
+      <c r="B57" s="39"/>
+      <c r="C57" s="39"/>
+      <c r="D57" s="39"/>
+      <c r="E57" s="39"/>
+      <c r="F57" s="39"/>
+      <c r="G57" s="39"/>
+      <c r="H57" s="39"/>
+      <c r="I57" s="39"/>
+      <c r="J57" s="39"/>
+      <c r="K57" s="39"/>
+      <c r="L57" s="39"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A58" s="46" t="s">
+      <c r="A58" s="40" t="s">
         <v>6</v>
       </c>
       <c r="B58" s="4" t="s">
@@ -3635,7 +3635,7 @@
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A59" s="47"/>
+      <c r="A59" s="41"/>
       <c r="B59" s="4" t="s">
         <v>20</v>
       </c>
@@ -3674,7 +3674,7 @@
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A60" s="47"/>
+      <c r="A60" s="41"/>
       <c r="B60" s="4" t="s">
         <v>21</v>
       </c>
@@ -3690,7 +3690,7 @@
       <c r="L60" s="8"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A61" s="47"/>
+      <c r="A61" s="41"/>
       <c r="B61" s="4" t="s">
         <v>19</v>
       </c>
@@ -3726,21 +3726,21 @@
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A62" s="42"/>
-      <c r="B62" s="42"/>
-      <c r="C62" s="42"/>
-      <c r="D62" s="42"/>
-      <c r="E62" s="42"/>
-      <c r="F62" s="42"/>
-      <c r="G62" s="42"/>
-      <c r="H62" s="42"/>
-      <c r="I62" s="42"/>
-      <c r="J62" s="42"/>
-      <c r="K62" s="42"/>
-      <c r="L62" s="42"/>
+      <c r="A62" s="39"/>
+      <c r="B62" s="39"/>
+      <c r="C62" s="39"/>
+      <c r="D62" s="39"/>
+      <c r="E62" s="39"/>
+      <c r="F62" s="39"/>
+      <c r="G62" s="39"/>
+      <c r="H62" s="39"/>
+      <c r="I62" s="39"/>
+      <c r="J62" s="39"/>
+      <c r="K62" s="39"/>
+      <c r="L62" s="39"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A63" s="39" t="s">
+      <c r="A63" s="42" t="s">
         <v>38</v>
       </c>
       <c r="B63" s="5" t="s">
@@ -3781,7 +3781,7 @@
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A64" s="40"/>
+      <c r="A64" s="43"/>
       <c r="B64" s="5" t="s">
         <v>20</v>
       </c>
@@ -3820,7 +3820,7 @@
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A65" s="40"/>
+      <c r="A65" s="43"/>
       <c r="B65" s="5" t="s">
         <v>21</v>
       </c>
@@ -3836,7 +3836,7 @@
       <c r="L65" s="8"/>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A66" s="41"/>
+      <c r="A66" s="44"/>
       <c r="B66" s="5" t="s">
         <v>19</v>
       </c>
@@ -3872,21 +3872,21 @@
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A67" s="42"/>
-      <c r="B67" s="42"/>
-      <c r="C67" s="42"/>
-      <c r="D67" s="42"/>
-      <c r="E67" s="42"/>
-      <c r="F67" s="42"/>
-      <c r="G67" s="42"/>
-      <c r="H67" s="42"/>
-      <c r="I67" s="42"/>
-      <c r="J67" s="42"/>
-      <c r="K67" s="42"/>
-      <c r="L67" s="42"/>
+      <c r="A67" s="39"/>
+      <c r="B67" s="39"/>
+      <c r="C67" s="39"/>
+      <c r="D67" s="39"/>
+      <c r="E67" s="39"/>
+      <c r="F67" s="39"/>
+      <c r="G67" s="39"/>
+      <c r="H67" s="39"/>
+      <c r="I67" s="39"/>
+      <c r="J67" s="39"/>
+      <c r="K67" s="39"/>
+      <c r="L67" s="39"/>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A68" s="46" t="s">
+      <c r="A68" s="40" t="s">
         <v>7</v>
       </c>
       <c r="B68" s="4" t="s">
@@ -3927,7 +3927,7 @@
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A69" s="47"/>
+      <c r="A69" s="41"/>
       <c r="B69" s="4" t="s">
         <v>20</v>
       </c>
@@ -3963,7 +3963,7 @@
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A70" s="47"/>
+      <c r="A70" s="41"/>
       <c r="B70" s="4" t="s">
         <v>21</v>
       </c>
@@ -3979,7 +3979,7 @@
       <c r="L70" s="8"/>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A71" s="47"/>
+      <c r="A71" s="41"/>
       <c r="B71" s="4" t="s">
         <v>19</v>
       </c>
@@ -4015,21 +4015,21 @@
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A72" s="42"/>
-      <c r="B72" s="42"/>
-      <c r="C72" s="42"/>
-      <c r="D72" s="42"/>
-      <c r="E72" s="42"/>
-      <c r="F72" s="42"/>
-      <c r="G72" s="42"/>
-      <c r="H72" s="42"/>
-      <c r="I72" s="42"/>
-      <c r="J72" s="42"/>
-      <c r="K72" s="42"/>
-      <c r="L72" s="42"/>
+      <c r="A72" s="39"/>
+      <c r="B72" s="39"/>
+      <c r="C72" s="39"/>
+      <c r="D72" s="39"/>
+      <c r="E72" s="39"/>
+      <c r="F72" s="39"/>
+      <c r="G72" s="39"/>
+      <c r="H72" s="39"/>
+      <c r="I72" s="39"/>
+      <c r="J72" s="39"/>
+      <c r="K72" s="39"/>
+      <c r="L72" s="39"/>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A73" s="46" t="s">
+      <c r="A73" s="40" t="s">
         <v>8</v>
       </c>
       <c r="B73" s="4" t="s">
@@ -4070,7 +4070,7 @@
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A74" s="47"/>
+      <c r="A74" s="41"/>
       <c r="B74" s="4" t="s">
         <v>19</v>
       </c>
@@ -4106,7 +4106,7 @@
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A75" s="39"/>
+      <c r="A75" s="42"/>
       <c r="B75" s="5" t="s">
         <v>18</v>
       </c>
@@ -4145,7 +4145,7 @@
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A76" s="40"/>
+      <c r="A76" s="43"/>
       <c r="B76" s="5" t="s">
         <v>20</v>
       </c>
@@ -4185,7 +4185,7 @@
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A77" s="41"/>
+      <c r="A77" s="44"/>
       <c r="B77" s="5" t="s">
         <v>19</v>
       </c>
@@ -4222,21 +4222,21 @@
       <c r="N77" s="11"/>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A78" s="42"/>
-      <c r="B78" s="42"/>
-      <c r="C78" s="42"/>
-      <c r="D78" s="42"/>
-      <c r="E78" s="42"/>
-      <c r="F78" s="42"/>
-      <c r="G78" s="42"/>
-      <c r="H78" s="42"/>
-      <c r="I78" s="42"/>
-      <c r="J78" s="42"/>
-      <c r="K78" s="42"/>
-      <c r="L78" s="42"/>
+      <c r="A78" s="39"/>
+      <c r="B78" s="39"/>
+      <c r="C78" s="39"/>
+      <c r="D78" s="39"/>
+      <c r="E78" s="39"/>
+      <c r="F78" s="39"/>
+      <c r="G78" s="39"/>
+      <c r="H78" s="39"/>
+      <c r="I78" s="39"/>
+      <c r="J78" s="39"/>
+      <c r="K78" s="39"/>
+      <c r="L78" s="39"/>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A79" s="39" t="s">
+      <c r="A79" s="42" t="s">
         <v>25</v>
       </c>
       <c r="B79" s="5" t="s">
@@ -4277,7 +4277,7 @@
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A80" s="40"/>
+      <c r="A80" s="43"/>
       <c r="B80" s="5" t="s">
         <v>20</v>
       </c>
@@ -4316,7 +4316,7 @@
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A81" s="41"/>
+      <c r="A81" s="44"/>
       <c r="B81" s="5" t="s">
         <v>19</v>
       </c>
@@ -4352,21 +4352,21 @@
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A82" s="42"/>
-      <c r="B82" s="42"/>
-      <c r="C82" s="42"/>
-      <c r="D82" s="42"/>
-      <c r="E82" s="42"/>
-      <c r="F82" s="42"/>
-      <c r="G82" s="42"/>
-      <c r="H82" s="42"/>
-      <c r="I82" s="42"/>
-      <c r="J82" s="42"/>
-      <c r="K82" s="42"/>
-      <c r="L82" s="42"/>
+      <c r="A82" s="39"/>
+      <c r="B82" s="39"/>
+      <c r="C82" s="39"/>
+      <c r="D82" s="39"/>
+      <c r="E82" s="39"/>
+      <c r="F82" s="39"/>
+      <c r="G82" s="39"/>
+      <c r="H82" s="39"/>
+      <c r="I82" s="39"/>
+      <c r="J82" s="39"/>
+      <c r="K82" s="39"/>
+      <c r="L82" s="39"/>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A83" s="46" t="s">
+      <c r="A83" s="40" t="s">
         <v>9</v>
       </c>
       <c r="B83" s="4" t="s">
@@ -4389,7 +4389,7 @@
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A84" s="47"/>
+      <c r="A84" s="41"/>
       <c r="B84" s="4" t="s">
         <v>20</v>
       </c>
@@ -4405,7 +4405,7 @@
       <c r="L84" s="8"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A85" s="47"/>
+      <c r="A85" s="41"/>
       <c r="B85" s="4" t="s">
         <v>19</v>
       </c>
@@ -4423,18 +4423,18 @@
       <c r="L85" s="8"/>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A86" s="42"/>
-      <c r="B86" s="42"/>
-      <c r="C86" s="42"/>
-      <c r="D86" s="42"/>
-      <c r="E86" s="42"/>
-      <c r="F86" s="42"/>
-      <c r="G86" s="42"/>
-      <c r="H86" s="42"/>
-      <c r="I86" s="42"/>
-      <c r="J86" s="42"/>
-      <c r="K86" s="42"/>
-      <c r="L86" s="42"/>
+      <c r="A86" s="39"/>
+      <c r="B86" s="39"/>
+      <c r="C86" s="39"/>
+      <c r="D86" s="39"/>
+      <c r="E86" s="39"/>
+      <c r="F86" s="39"/>
+      <c r="G86" s="39"/>
+      <c r="H86" s="39"/>
+      <c r="I86" s="39"/>
+      <c r="J86" s="39"/>
+      <c r="K86" s="39"/>
+      <c r="L86" s="39"/>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C89" s="9" t="s">
@@ -4478,6 +4478,31 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A36:L36"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="A8:L8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A16:L16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A28:L28"/>
+    <mergeCell ref="A32:L32"/>
+    <mergeCell ref="A40:L40"/>
+    <mergeCell ref="A46:L46"/>
+    <mergeCell ref="A12:L12"/>
+    <mergeCell ref="A20:L20"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A24:L24"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A86:L86"/>
     <mergeCell ref="A67:L67"/>
     <mergeCell ref="A53:L53"/>
@@ -4494,31 +4519,6 @@
     <mergeCell ref="A72:L72"/>
     <mergeCell ref="A63:A66"/>
     <mergeCell ref="A57:L57"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A28:L28"/>
-    <mergeCell ref="A32:L32"/>
-    <mergeCell ref="A40:L40"/>
-    <mergeCell ref="A46:L46"/>
-    <mergeCell ref="A12:L12"/>
-    <mergeCell ref="A20:L20"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A24:L24"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="A36:L36"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="A8:L8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A16:L16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A47:A49"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7239,7 +7239,7 @@
       </c>
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="40" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="18" t="s">
@@ -7301,7 +7301,7 @@
       </c>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B5" s="46"/>
+      <c r="B5" s="40"/>
       <c r="C5" s="18" t="s">
         <v>20</v>
       </c>
@@ -7361,7 +7361,7 @@
       </c>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="40" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="18" t="s">
@@ -7423,7 +7423,7 @@
       </c>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B7" s="46"/>
+      <c r="B7" s="40"/>
       <c r="C7" s="18" t="s">
         <v>20</v>
       </c>
@@ -7483,7 +7483,7 @@
       </c>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="40" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="18" t="s">
@@ -7545,7 +7545,7 @@
       </c>
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B9" s="46"/>
+      <c r="B9" s="40"/>
       <c r="C9" s="18" t="s">
         <v>20</v>
       </c>
@@ -7605,7 +7605,7 @@
       </c>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="40" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="18" t="s">
@@ -7667,7 +7667,7 @@
       </c>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B11" s="46"/>
+      <c r="B11" s="40"/>
       <c r="C11" s="18" t="s">
         <v>20</v>
       </c>
@@ -7727,7 +7727,7 @@
       </c>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="40" t="s">
         <v>100</v>
       </c>
       <c r="C12" s="18" t="s">
@@ -7789,7 +7789,7 @@
       </c>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B13" s="46"/>
+      <c r="B13" s="40"/>
       <c r="C13" s="18" t="s">
         <v>20</v>
       </c>
@@ -7883,8 +7883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AFE7F9D-67B7-411B-96BF-FE0DEC5ACDF9}">
   <dimension ref="B2:Q13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -8350,8 +8350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CC964AB-77A4-435F-9FE7-964E074FB5CA}">
   <dimension ref="B2:O13"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -9079,7 +9079,7 @@
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="45" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -9111,7 +9111,7 @@
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="44"/>
+      <c r="B5" s="46"/>
       <c r="C5" s="5" t="s">
         <v>20</v>
       </c>
@@ -9141,7 +9141,7 @@
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="45"/>
+      <c r="B6" s="47"/>
       <c r="C6" s="5" t="s">
         <v>21</v>
       </c>
@@ -9162,7 +9162,7 @@
       <c r="Q6" s="36"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="45" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="5" t="s">
@@ -9199,7 +9199,7 @@
       <c r="Q7" s="36"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="44"/>
+      <c r="B8" s="46"/>
       <c r="C8" s="5" t="s">
         <v>20</v>
       </c>
@@ -9234,7 +9234,7 @@
       <c r="Q8" s="36"/>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B9" s="45"/>
+      <c r="B9" s="47"/>
       <c r="C9" s="5" t="s">
         <v>21</v>
       </c>
@@ -9255,7 +9255,7 @@
       <c r="Q9" s="36"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="45" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="5" t="s">
@@ -9292,7 +9292,7 @@
       <c r="Q10" s="36"/>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B11" s="44"/>
+      <c r="B11" s="46"/>
       <c r="C11" s="5" t="s">
         <v>20</v>
       </c>
@@ -9327,7 +9327,7 @@
       <c r="Q11" s="36"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B12" s="45"/>
+      <c r="B12" s="47"/>
       <c r="C12" s="5" t="s">
         <v>21</v>
       </c>
@@ -9348,7 +9348,7 @@
       <c r="Q12" s="36"/>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="45" t="s">
         <v>207</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -9385,7 +9385,7 @@
       <c r="Q13" s="36"/>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B14" s="44"/>
+      <c r="B14" s="46"/>
       <c r="C14" s="5" t="s">
         <v>20</v>
       </c>
@@ -9420,7 +9420,7 @@
       <c r="Q14" s="36"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="45"/>
+      <c r="B15" s="47"/>
       <c r="C15" s="5" t="s">
         <v>21</v>
       </c>

--- a/VDO测试结果统计 ver4.14.xlsx
+++ b/VDO测试结果统计 ver4.14.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\【study】\毕业设计\intel-vdo-note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DC0DDFD-E831-43CF-AA97-19302D2BB336}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00173A71-24ED-44A5-B6C6-4F6036BA59EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2316" yWindow="468" windowWidth="14412" windowHeight="11472" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9276" yWindow="672" windowWidth="13380" windowHeight="10524" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="测试1-benchmark" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,8 @@
     <sheet name="测试5-bs" sheetId="6" r:id="rId6"/>
     <sheet name="测试6-压缩率" sheetId="7" r:id="rId7"/>
     <sheet name="测试7-hash" sheetId="9" r:id="rId8"/>
-    <sheet name="测试6-Calgary" sheetId="8" r:id="rId9"/>
+    <sheet name="测试6-Calgary" sheetId="8" state="hidden" r:id="rId9"/>
+    <sheet name="测试8-filebench" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="288">
   <si>
     <t>compress_QAT</t>
   </si>
@@ -874,6 +875,302 @@
   </si>
   <si>
     <t>write 2047</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qat_async</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lz4-murnur</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vdo-off</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mongo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varmail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>webproxy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>webserver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fileserver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oltp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>videoserver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total ops</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rd/wr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2446/2446</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>带宽（mb/s)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>75305/7351</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11410/22819</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>randomrw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>randomfileaccess</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tpcso</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>999/999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31015/6203</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vdo-lz4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>322900/182681</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2465/2465</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>73293/7330</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10717/21433</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001/1001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30142/6028</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vdo-on</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>327877/208558</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vdo-qat-multi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2175/2176</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10300/20600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>74424/7443</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30439/6088</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iops (ops/s)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>latency (ms/op)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>324381/200387</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vdo-qat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vdo-zlib</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vdo-qat-async</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31241/6248</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>337891/196695</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10745/21491</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>73050/7306</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2454/2454</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4408/8816</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>73174/7318</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1818/1819</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>29682/5936</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>186736/140406</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>randread1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>createfile1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deletefile1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fsyncfile2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appendlog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10101/20201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>73695/7370</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2413/2414</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fsyncfile3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000/1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30958/6192</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>315293/186094</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>randwrite1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpu (by top)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7842/15684</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大延迟(ms)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>72932/7294</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2375/2375</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appendfilerand1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30382/6076</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>299086/190814</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lz4- murmurs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -881,7 +1178,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -919,6 +1216,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -952,7 +1256,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -1258,11 +1562,116 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1374,14 +1783,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1392,6 +1816,9 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1399,6 +1826,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1419,18 +1852,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1445,6 +1866,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1471,6 +1904,45 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1756,7 +2228,7 @@
   <dimension ref="A1:P95"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="I26" sqref="I26:L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1769,21 +2241,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="39"/>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
+      <c r="A1" s="50"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="51" t="s">
         <v>22</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1824,7 +2296,7 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="46"/>
+      <c r="A3" s="52"/>
       <c r="B3" s="4" t="s">
         <v>20</v>
       </c>
@@ -1863,7 +2335,7 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="47"/>
+      <c r="A4" s="53"/>
       <c r="B4" s="4" t="s">
         <v>19</v>
       </c>
@@ -1899,7 +2371,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="45"/>
+      <c r="A5" s="51"/>
       <c r="B5" s="5" t="s">
         <v>18</v>
       </c>
@@ -1938,7 +2410,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="46"/>
+      <c r="A6" s="52"/>
       <c r="B6" s="5" t="s">
         <v>20</v>
       </c>
@@ -1955,7 +2427,7 @@
       <c r="N6" s="10"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="47"/>
+      <c r="A7" s="53"/>
       <c r="B7" s="5" t="s">
         <v>19</v>
       </c>
@@ -1992,21 +2464,21 @@
       <c r="N7" s="10"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="39"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
+      <c r="A8" s="50"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="51" t="s">
         <v>28</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -2047,7 +2519,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="46"/>
+      <c r="A10" s="52"/>
       <c r="B10" s="5" t="s">
         <v>20</v>
       </c>
@@ -2086,7 +2558,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="47"/>
+      <c r="A11" s="53"/>
       <c r="B11" s="5" t="s">
         <v>19</v>
       </c>
@@ -2122,21 +2594,21 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="39"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="39"/>
+      <c r="A12" s="50"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="50"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="40" t="s">
+      <c r="A13" s="54" t="s">
         <v>0</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -2177,7 +2649,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="41"/>
+      <c r="A14" s="55"/>
       <c r="B14" s="4" t="s">
         <v>20</v>
       </c>
@@ -2216,7 +2688,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="41"/>
+      <c r="A15" s="55"/>
       <c r="B15" s="4" t="s">
         <v>19</v>
       </c>
@@ -2252,21 +2724,21 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="39"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39"/>
+      <c r="A16" s="50"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="50"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="47" t="s">
         <v>29</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -2307,7 +2779,7 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="43"/>
+      <c r="A18" s="48"/>
       <c r="B18" s="5" t="s">
         <v>20</v>
       </c>
@@ -2346,7 +2818,7 @@
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="44"/>
+      <c r="A19" s="49"/>
       <c r="B19" s="5" t="s">
         <v>19</v>
       </c>
@@ -2382,21 +2854,21 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="39"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="39"/>
-      <c r="L20" s="39"/>
+      <c r="A20" s="50"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="50"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="54" t="s">
         <v>1</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -2437,7 +2909,7 @@
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="41"/>
+      <c r="A22" s="55"/>
       <c r="B22" s="4" t="s">
         <v>20</v>
       </c>
@@ -2476,7 +2948,7 @@
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="41"/>
+      <c r="A23" s="55"/>
       <c r="B23" s="4" t="s">
         <v>19</v>
       </c>
@@ -2512,21 +2984,21 @@
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="39"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="39"/>
-      <c r="L24" s="39"/>
+      <c r="A24" s="50"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="50"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="40" t="s">
+      <c r="A25" s="54" t="s">
         <v>40</v>
       </c>
       <c r="B25" s="4" t="s">
@@ -2567,7 +3039,7 @@
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="41"/>
+      <c r="A26" s="55"/>
       <c r="B26" s="4" t="s">
         <v>20</v>
       </c>
@@ -2606,7 +3078,7 @@
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="41"/>
+      <c r="A27" s="55"/>
       <c r="B27" s="4" t="s">
         <v>19</v>
       </c>
@@ -2642,21 +3114,21 @@
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="39"/>
-      <c r="B28" s="39"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="39"/>
-      <c r="K28" s="39"/>
-      <c r="L28" s="39"/>
+      <c r="A28" s="50"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="50"/>
+      <c r="L28" s="50"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="40" t="s">
+      <c r="A29" s="54" t="s">
         <v>2</v>
       </c>
       <c r="B29" s="4" t="s">
@@ -2697,7 +3169,7 @@
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="41"/>
+      <c r="A30" s="55"/>
       <c r="B30" s="4" t="s">
         <v>20</v>
       </c>
@@ -2736,7 +3208,7 @@
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="41"/>
+      <c r="A31" s="55"/>
       <c r="B31" s="4" t="s">
         <v>19</v>
       </c>
@@ -2772,21 +3244,21 @@
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="39"/>
-      <c r="B32" s="39"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="39"/>
-      <c r="J32" s="39"/>
-      <c r="K32" s="39"/>
-      <c r="L32" s="39"/>
+      <c r="A32" s="50"/>
+      <c r="B32" s="50"/>
+      <c r="C32" s="50"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="50"/>
+      <c r="I32" s="50"/>
+      <c r="J32" s="50"/>
+      <c r="K32" s="50"/>
+      <c r="L32" s="50"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="40" t="s">
+      <c r="A33" s="54" t="s">
         <v>3</v>
       </c>
       <c r="B33" s="4" t="s">
@@ -2827,7 +3299,7 @@
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="41"/>
+      <c r="A34" s="55"/>
       <c r="B34" s="4" t="s">
         <v>20</v>
       </c>
@@ -2866,7 +3338,7 @@
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" s="41"/>
+      <c r="A35" s="55"/>
       <c r="B35" s="4" t="s">
         <v>19</v>
       </c>
@@ -2902,21 +3374,21 @@
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="39"/>
-      <c r="B36" s="39"/>
-      <c r="C36" s="39"/>
-      <c r="D36" s="39"/>
-      <c r="E36" s="39"/>
-      <c r="F36" s="39"/>
-      <c r="G36" s="39"/>
-      <c r="H36" s="39"/>
-      <c r="I36" s="39"/>
-      <c r="J36" s="39"/>
-      <c r="K36" s="39"/>
-      <c r="L36" s="39"/>
+      <c r="A36" s="50"/>
+      <c r="B36" s="50"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="50"/>
+      <c r="G36" s="50"/>
+      <c r="H36" s="50"/>
+      <c r="I36" s="50"/>
+      <c r="J36" s="50"/>
+      <c r="K36" s="50"/>
+      <c r="L36" s="50"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="42" t="s">
+      <c r="A37" s="47" t="s">
         <v>26</v>
       </c>
       <c r="B37" s="5" t="s">
@@ -2957,7 +3429,7 @@
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" s="43"/>
+      <c r="A38" s="48"/>
       <c r="B38" s="5" t="s">
         <v>20</v>
       </c>
@@ -2973,7 +3445,7 @@
       <c r="L38" s="8"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="44"/>
+      <c r="A39" s="49"/>
       <c r="B39" s="5" t="s">
         <v>19</v>
       </c>
@@ -3009,21 +3481,21 @@
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="39"/>
-      <c r="B40" s="39"/>
-      <c r="C40" s="39"/>
-      <c r="D40" s="39"/>
-      <c r="E40" s="39"/>
-      <c r="F40" s="39"/>
-      <c r="G40" s="39"/>
-      <c r="H40" s="39"/>
-      <c r="I40" s="39"/>
-      <c r="J40" s="39"/>
-      <c r="K40" s="39"/>
-      <c r="L40" s="39"/>
+      <c r="A40" s="50"/>
+      <c r="B40" s="50"/>
+      <c r="C40" s="50"/>
+      <c r="D40" s="50"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="50"/>
+      <c r="G40" s="50"/>
+      <c r="H40" s="50"/>
+      <c r="I40" s="50"/>
+      <c r="J40" s="50"/>
+      <c r="K40" s="50"/>
+      <c r="L40" s="50"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" s="40" t="s">
+      <c r="A41" s="54" t="s">
         <v>4</v>
       </c>
       <c r="B41" s="4" t="s">
@@ -3064,7 +3536,7 @@
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" s="41"/>
+      <c r="A42" s="55"/>
       <c r="B42" s="4" t="s">
         <v>19</v>
       </c>
@@ -3100,7 +3572,7 @@
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="42"/>
+      <c r="A43" s="47"/>
       <c r="B43" s="5" t="s">
         <v>18</v>
       </c>
@@ -3142,7 +3614,7 @@
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A44" s="43"/>
+      <c r="A44" s="48"/>
       <c r="B44" s="5" t="s">
         <v>20</v>
       </c>
@@ -3181,7 +3653,7 @@
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" s="44"/>
+      <c r="A45" s="49"/>
       <c r="B45" s="5" t="s">
         <v>19</v>
       </c>
@@ -3217,23 +3689,23 @@
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" s="39"/>
-      <c r="B46" s="39"/>
-      <c r="C46" s="39"/>
-      <c r="D46" s="39"/>
-      <c r="E46" s="39"/>
-      <c r="F46" s="39"/>
-      <c r="G46" s="39"/>
-      <c r="H46" s="39"/>
-      <c r="I46" s="39"/>
-      <c r="J46" s="39"/>
-      <c r="K46" s="39"/>
-      <c r="L46" s="39"/>
+      <c r="A46" s="50"/>
+      <c r="B46" s="50"/>
+      <c r="C46" s="50"/>
+      <c r="D46" s="50"/>
+      <c r="E46" s="50"/>
+      <c r="F46" s="50"/>
+      <c r="G46" s="50"/>
+      <c r="H46" s="50"/>
+      <c r="I46" s="50"/>
+      <c r="J46" s="50"/>
+      <c r="K46" s="50"/>
+      <c r="L46" s="50"/>
       <c r="N46" s="11"/>
       <c r="O46" s="11"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47" s="40" t="s">
+      <c r="A47" s="54" t="s">
         <v>5</v>
       </c>
       <c r="B47" s="4" t="s">
@@ -3274,7 +3746,7 @@
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48" s="41"/>
+      <c r="A48" s="55"/>
       <c r="B48" s="4" t="s">
         <v>20</v>
       </c>
@@ -3294,7 +3766,7 @@
       <c r="L48" s="8"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A49" s="41"/>
+      <c r="A49" s="55"/>
       <c r="B49" s="4" t="s">
         <v>19</v>
       </c>
@@ -3330,7 +3802,7 @@
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A50" s="42"/>
+      <c r="A50" s="47"/>
       <c r="B50" s="5" t="s">
         <v>18</v>
       </c>
@@ -3372,7 +3844,7 @@
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A51" s="43"/>
+      <c r="A51" s="48"/>
       <c r="B51" s="5" t="s">
         <v>20</v>
       </c>
@@ -3411,7 +3883,7 @@
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A52" s="44"/>
+      <c r="A52" s="49"/>
       <c r="B52" s="5" t="s">
         <v>19</v>
       </c>
@@ -3447,21 +3919,21 @@
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A53" s="39"/>
-      <c r="B53" s="39"/>
-      <c r="C53" s="39"/>
-      <c r="D53" s="39"/>
-      <c r="E53" s="39"/>
-      <c r="F53" s="39"/>
-      <c r="G53" s="39"/>
-      <c r="H53" s="39"/>
-      <c r="I53" s="39"/>
-      <c r="J53" s="39"/>
-      <c r="K53" s="39"/>
-      <c r="L53" s="39"/>
+      <c r="A53" s="50"/>
+      <c r="B53" s="50"/>
+      <c r="C53" s="50"/>
+      <c r="D53" s="50"/>
+      <c r="E53" s="50"/>
+      <c r="F53" s="50"/>
+      <c r="G53" s="50"/>
+      <c r="H53" s="50"/>
+      <c r="I53" s="50"/>
+      <c r="J53" s="50"/>
+      <c r="K53" s="50"/>
+      <c r="L53" s="50"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A54" s="40" t="s">
+      <c r="A54" s="54" t="s">
         <v>17</v>
       </c>
       <c r="B54" s="4" t="s">
@@ -3505,7 +3977,7 @@
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A55" s="41"/>
+      <c r="A55" s="55"/>
       <c r="B55" s="4" t="s">
         <v>20</v>
       </c>
@@ -3544,7 +4016,7 @@
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A56" s="41"/>
+      <c r="A56" s="55"/>
       <c r="B56" s="4" t="s">
         <v>19</v>
       </c>
@@ -3580,21 +4052,21 @@
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A57" s="39"/>
-      <c r="B57" s="39"/>
-      <c r="C57" s="39"/>
-      <c r="D57" s="39"/>
-      <c r="E57" s="39"/>
-      <c r="F57" s="39"/>
-      <c r="G57" s="39"/>
-      <c r="H57" s="39"/>
-      <c r="I57" s="39"/>
-      <c r="J57" s="39"/>
-      <c r="K57" s="39"/>
-      <c r="L57" s="39"/>
+      <c r="A57" s="50"/>
+      <c r="B57" s="50"/>
+      <c r="C57" s="50"/>
+      <c r="D57" s="50"/>
+      <c r="E57" s="50"/>
+      <c r="F57" s="50"/>
+      <c r="G57" s="50"/>
+      <c r="H57" s="50"/>
+      <c r="I57" s="50"/>
+      <c r="J57" s="50"/>
+      <c r="K57" s="50"/>
+      <c r="L57" s="50"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A58" s="40" t="s">
+      <c r="A58" s="54" t="s">
         <v>6</v>
       </c>
       <c r="B58" s="4" t="s">
@@ -3635,7 +4107,7 @@
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A59" s="41"/>
+      <c r="A59" s="55"/>
       <c r="B59" s="4" t="s">
         <v>20</v>
       </c>
@@ -3674,7 +4146,7 @@
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A60" s="41"/>
+      <c r="A60" s="55"/>
       <c r="B60" s="4" t="s">
         <v>21</v>
       </c>
@@ -3690,7 +4162,7 @@
       <c r="L60" s="8"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A61" s="41"/>
+      <c r="A61" s="55"/>
       <c r="B61" s="4" t="s">
         <v>19</v>
       </c>
@@ -3726,21 +4198,21 @@
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A62" s="39"/>
-      <c r="B62" s="39"/>
-      <c r="C62" s="39"/>
-      <c r="D62" s="39"/>
-      <c r="E62" s="39"/>
-      <c r="F62" s="39"/>
-      <c r="G62" s="39"/>
-      <c r="H62" s="39"/>
-      <c r="I62" s="39"/>
-      <c r="J62" s="39"/>
-      <c r="K62" s="39"/>
-      <c r="L62" s="39"/>
+      <c r="A62" s="50"/>
+      <c r="B62" s="50"/>
+      <c r="C62" s="50"/>
+      <c r="D62" s="50"/>
+      <c r="E62" s="50"/>
+      <c r="F62" s="50"/>
+      <c r="G62" s="50"/>
+      <c r="H62" s="50"/>
+      <c r="I62" s="50"/>
+      <c r="J62" s="50"/>
+      <c r="K62" s="50"/>
+      <c r="L62" s="50"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A63" s="42" t="s">
+      <c r="A63" s="47" t="s">
         <v>38</v>
       </c>
       <c r="B63" s="5" t="s">
@@ -3781,7 +4253,7 @@
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A64" s="43"/>
+      <c r="A64" s="48"/>
       <c r="B64" s="5" t="s">
         <v>20</v>
       </c>
@@ -3820,7 +4292,7 @@
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A65" s="43"/>
+      <c r="A65" s="48"/>
       <c r="B65" s="5" t="s">
         <v>21</v>
       </c>
@@ -3836,7 +4308,7 @@
       <c r="L65" s="8"/>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A66" s="44"/>
+      <c r="A66" s="49"/>
       <c r="B66" s="5" t="s">
         <v>19</v>
       </c>
@@ -3872,21 +4344,21 @@
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A67" s="39"/>
-      <c r="B67" s="39"/>
-      <c r="C67" s="39"/>
-      <c r="D67" s="39"/>
-      <c r="E67" s="39"/>
-      <c r="F67" s="39"/>
-      <c r="G67" s="39"/>
-      <c r="H67" s="39"/>
-      <c r="I67" s="39"/>
-      <c r="J67" s="39"/>
-      <c r="K67" s="39"/>
-      <c r="L67" s="39"/>
+      <c r="A67" s="50"/>
+      <c r="B67" s="50"/>
+      <c r="C67" s="50"/>
+      <c r="D67" s="50"/>
+      <c r="E67" s="50"/>
+      <c r="F67" s="50"/>
+      <c r="G67" s="50"/>
+      <c r="H67" s="50"/>
+      <c r="I67" s="50"/>
+      <c r="J67" s="50"/>
+      <c r="K67" s="50"/>
+      <c r="L67" s="50"/>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A68" s="40" t="s">
+      <c r="A68" s="54" t="s">
         <v>7</v>
       </c>
       <c r="B68" s="4" t="s">
@@ -3927,7 +4399,7 @@
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A69" s="41"/>
+      <c r="A69" s="55"/>
       <c r="B69" s="4" t="s">
         <v>20</v>
       </c>
@@ -3963,7 +4435,7 @@
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A70" s="41"/>
+      <c r="A70" s="55"/>
       <c r="B70" s="4" t="s">
         <v>21</v>
       </c>
@@ -3979,7 +4451,7 @@
       <c r="L70" s="8"/>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A71" s="41"/>
+      <c r="A71" s="55"/>
       <c r="B71" s="4" t="s">
         <v>19</v>
       </c>
@@ -4015,21 +4487,21 @@
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A72" s="39"/>
-      <c r="B72" s="39"/>
-      <c r="C72" s="39"/>
-      <c r="D72" s="39"/>
-      <c r="E72" s="39"/>
-      <c r="F72" s="39"/>
-      <c r="G72" s="39"/>
-      <c r="H72" s="39"/>
-      <c r="I72" s="39"/>
-      <c r="J72" s="39"/>
-      <c r="K72" s="39"/>
-      <c r="L72" s="39"/>
+      <c r="A72" s="50"/>
+      <c r="B72" s="50"/>
+      <c r="C72" s="50"/>
+      <c r="D72" s="50"/>
+      <c r="E72" s="50"/>
+      <c r="F72" s="50"/>
+      <c r="G72" s="50"/>
+      <c r="H72" s="50"/>
+      <c r="I72" s="50"/>
+      <c r="J72" s="50"/>
+      <c r="K72" s="50"/>
+      <c r="L72" s="50"/>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A73" s="40" t="s">
+      <c r="A73" s="54" t="s">
         <v>8</v>
       </c>
       <c r="B73" s="4" t="s">
@@ -4070,7 +4542,7 @@
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A74" s="41"/>
+      <c r="A74" s="55"/>
       <c r="B74" s="4" t="s">
         <v>19</v>
       </c>
@@ -4106,7 +4578,7 @@
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A75" s="42"/>
+      <c r="A75" s="47"/>
       <c r="B75" s="5" t="s">
         <v>18</v>
       </c>
@@ -4145,7 +4617,7 @@
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A76" s="43"/>
+      <c r="A76" s="48"/>
       <c r="B76" s="5" t="s">
         <v>20</v>
       </c>
@@ -4185,7 +4657,7 @@
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A77" s="44"/>
+      <c r="A77" s="49"/>
       <c r="B77" s="5" t="s">
         <v>19</v>
       </c>
@@ -4222,21 +4694,21 @@
       <c r="N77" s="11"/>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A78" s="39"/>
-      <c r="B78" s="39"/>
-      <c r="C78" s="39"/>
-      <c r="D78" s="39"/>
-      <c r="E78" s="39"/>
-      <c r="F78" s="39"/>
-      <c r="G78" s="39"/>
-      <c r="H78" s="39"/>
-      <c r="I78" s="39"/>
-      <c r="J78" s="39"/>
-      <c r="K78" s="39"/>
-      <c r="L78" s="39"/>
+      <c r="A78" s="50"/>
+      <c r="B78" s="50"/>
+      <c r="C78" s="50"/>
+      <c r="D78" s="50"/>
+      <c r="E78" s="50"/>
+      <c r="F78" s="50"/>
+      <c r="G78" s="50"/>
+      <c r="H78" s="50"/>
+      <c r="I78" s="50"/>
+      <c r="J78" s="50"/>
+      <c r="K78" s="50"/>
+      <c r="L78" s="50"/>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A79" s="42" t="s">
+      <c r="A79" s="47" t="s">
         <v>25</v>
       </c>
       <c r="B79" s="5" t="s">
@@ -4277,7 +4749,7 @@
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A80" s="43"/>
+      <c r="A80" s="48"/>
       <c r="B80" s="5" t="s">
         <v>20</v>
       </c>
@@ -4316,7 +4788,7 @@
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A81" s="44"/>
+      <c r="A81" s="49"/>
       <c r="B81" s="5" t="s">
         <v>19</v>
       </c>
@@ -4352,21 +4824,21 @@
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A82" s="39"/>
-      <c r="B82" s="39"/>
-      <c r="C82" s="39"/>
-      <c r="D82" s="39"/>
-      <c r="E82" s="39"/>
-      <c r="F82" s="39"/>
-      <c r="G82" s="39"/>
-      <c r="H82" s="39"/>
-      <c r="I82" s="39"/>
-      <c r="J82" s="39"/>
-      <c r="K82" s="39"/>
-      <c r="L82" s="39"/>
+      <c r="A82" s="50"/>
+      <c r="B82" s="50"/>
+      <c r="C82" s="50"/>
+      <c r="D82" s="50"/>
+      <c r="E82" s="50"/>
+      <c r="F82" s="50"/>
+      <c r="G82" s="50"/>
+      <c r="H82" s="50"/>
+      <c r="I82" s="50"/>
+      <c r="J82" s="50"/>
+      <c r="K82" s="50"/>
+      <c r="L82" s="50"/>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A83" s="40" t="s">
+      <c r="A83" s="54" t="s">
         <v>9</v>
       </c>
       <c r="B83" s="4" t="s">
@@ -4389,7 +4861,7 @@
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A84" s="41"/>
+      <c r="A84" s="55"/>
       <c r="B84" s="4" t="s">
         <v>20</v>
       </c>
@@ -4405,7 +4877,7 @@
       <c r="L84" s="8"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A85" s="41"/>
+      <c r="A85" s="55"/>
       <c r="B85" s="4" t="s">
         <v>19</v>
       </c>
@@ -4423,18 +4895,18 @@
       <c r="L85" s="8"/>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A86" s="39"/>
-      <c r="B86" s="39"/>
-      <c r="C86" s="39"/>
-      <c r="D86" s="39"/>
-      <c r="E86" s="39"/>
-      <c r="F86" s="39"/>
-      <c r="G86" s="39"/>
-      <c r="H86" s="39"/>
-      <c r="I86" s="39"/>
-      <c r="J86" s="39"/>
-      <c r="K86" s="39"/>
-      <c r="L86" s="39"/>
+      <c r="A86" s="50"/>
+      <c r="B86" s="50"/>
+      <c r="C86" s="50"/>
+      <c r="D86" s="50"/>
+      <c r="E86" s="50"/>
+      <c r="F86" s="50"/>
+      <c r="G86" s="50"/>
+      <c r="H86" s="50"/>
+      <c r="I86" s="50"/>
+      <c r="J86" s="50"/>
+      <c r="K86" s="50"/>
+      <c r="L86" s="50"/>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C89" s="9" t="s">
@@ -4478,15 +4950,22 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="A36:L36"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="A8:L8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A16:L16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="A86:L86"/>
+    <mergeCell ref="A67:L67"/>
+    <mergeCell ref="A53:L53"/>
+    <mergeCell ref="A58:A61"/>
+    <mergeCell ref="A68:A71"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="A83:A85"/>
+    <mergeCell ref="A82:L82"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="A78:L78"/>
+    <mergeCell ref="A79:A81"/>
+    <mergeCell ref="A62:L62"/>
+    <mergeCell ref="A75:A77"/>
+    <mergeCell ref="A72:L72"/>
+    <mergeCell ref="A63:A66"/>
+    <mergeCell ref="A57:L57"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A28:L28"/>
     <mergeCell ref="A32:L32"/>
@@ -4503,22 +4982,1498 @@
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A21:A23"/>
     <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A86:L86"/>
-    <mergeCell ref="A67:L67"/>
-    <mergeCell ref="A53:L53"/>
-    <mergeCell ref="A58:A61"/>
-    <mergeCell ref="A68:A71"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="A83:A85"/>
-    <mergeCell ref="A82:L82"/>
-    <mergeCell ref="A54:A56"/>
-    <mergeCell ref="A78:L78"/>
-    <mergeCell ref="A79:A81"/>
-    <mergeCell ref="A62:L62"/>
-    <mergeCell ref="A75:A77"/>
-    <mergeCell ref="A72:L72"/>
-    <mergeCell ref="A63:A66"/>
-    <mergeCell ref="A57:L57"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A36:L36"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="A8:L8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A16:L16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A47:A49"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40ACC526-A165-4A40-9FE9-08D8C6C759EF}">
+  <dimension ref="B2:M58"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="G39" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="B43" sqref="B43:B50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.109375" style="11" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" customWidth="1"/>
+    <col min="4" max="4" width="12" style="11" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="11" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" style="11" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" style="11" customWidth="1"/>
+    <col min="8" max="9" width="13.77734375" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" style="11" customWidth="1"/>
+    <col min="11" max="11" width="11.5546875" style="11" customWidth="1"/>
+    <col min="12" max="12" width="16.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="88"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="40" t="s">
+        <v>221</v>
+      </c>
+      <c r="E2" s="40" t="s">
+        <v>220</v>
+      </c>
+      <c r="F2" s="39" t="s">
+        <v>218</v>
+      </c>
+      <c r="G2" s="39" t="s">
+        <v>217</v>
+      </c>
+      <c r="H2" s="39" t="s">
+        <v>219</v>
+      </c>
+      <c r="I2" s="39" t="s">
+        <v>230</v>
+      </c>
+      <c r="J2" s="39" t="s">
+        <v>222</v>
+      </c>
+      <c r="K2" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="L2" s="39" t="s">
+        <v>231</v>
+      </c>
+      <c r="M2" s="39" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B3" s="90" t="s">
+        <v>216</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3" s="42">
+        <v>7530995</v>
+      </c>
+      <c r="E3" s="42">
+        <v>13673153</v>
+      </c>
+      <c r="F3" s="42">
+        <v>954042</v>
+      </c>
+      <c r="G3" s="42">
+        <v>7006</v>
+      </c>
+      <c r="H3" s="42">
+        <v>7072510</v>
+      </c>
+      <c r="I3" s="42">
+        <v>30398772</v>
+      </c>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B4" s="91"/>
+      <c r="C4" s="39" t="s">
+        <v>249</v>
+      </c>
+      <c r="D4" s="42">
+        <v>125505.88800000001</v>
+      </c>
+      <c r="E4" s="42">
+        <v>227867.22099999999</v>
+      </c>
+      <c r="F4" s="42">
+        <v>15898.38</v>
+      </c>
+      <c r="G4" s="42">
+        <v>6990.6419999999998</v>
+      </c>
+      <c r="H4" s="42">
+        <v>117859.666</v>
+      </c>
+      <c r="I4" s="42">
+        <v>505581.11800000002</v>
+      </c>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="91"/>
+      <c r="C5" s="39" t="s">
+        <v>225</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>229</v>
+      </c>
+      <c r="E5" s="42" t="s">
+        <v>228</v>
+      </c>
+      <c r="F5" s="42" t="s">
+        <v>226</v>
+      </c>
+      <c r="G5" s="42" t="s">
+        <v>233</v>
+      </c>
+      <c r="H5" s="42" t="s">
+        <v>234</v>
+      </c>
+      <c r="I5" s="42" t="s">
+        <v>236</v>
+      </c>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="91"/>
+      <c r="C6" s="39" t="s">
+        <v>227</v>
+      </c>
+      <c r="D6" s="42">
+        <v>3010.1</v>
+      </c>
+      <c r="E6" s="42">
+        <v>1142.3</v>
+      </c>
+      <c r="F6" s="42">
+        <v>57.1</v>
+      </c>
+      <c r="G6" s="42">
+        <v>23.3</v>
+      </c>
+      <c r="H6" s="42">
+        <v>295.8</v>
+      </c>
+      <c r="I6" s="42">
+        <v>3949.9</v>
+      </c>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="91"/>
+      <c r="C7" s="39" t="s">
+        <v>250</v>
+      </c>
+      <c r="D7" s="42">
+        <v>1</v>
+      </c>
+      <c r="E7" s="42">
+        <v>0.4</v>
+      </c>
+      <c r="F7" s="42">
+        <v>3.2</v>
+      </c>
+      <c r="G7" s="42">
+        <v>0</v>
+      </c>
+      <c r="H7" s="42">
+        <v>2.7</v>
+      </c>
+      <c r="I7" s="42">
+        <v>0</v>
+      </c>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="91"/>
+      <c r="C8" s="85" t="s">
+        <v>280</v>
+      </c>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="91"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="92"/>
+      <c r="C10" s="46" t="s">
+        <v>278</v>
+      </c>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B11" s="90" t="s">
+        <v>235</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D11" s="42">
+        <v>7073524</v>
+      </c>
+      <c r="E11" s="42">
+        <v>13633689</v>
+      </c>
+      <c r="F11" s="42">
+        <v>961454</v>
+      </c>
+      <c r="G11" s="42">
+        <v>7006</v>
+      </c>
+      <c r="H11" s="42">
+        <v>6881050</v>
+      </c>
+      <c r="I11" s="42">
+        <v>32243413</v>
+      </c>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="91"/>
+      <c r="C12" s="39" t="s">
+        <v>249</v>
+      </c>
+      <c r="D12" s="42">
+        <v>117882.45699999999</v>
+      </c>
+      <c r="E12" s="42">
+        <v>227210.155</v>
+      </c>
+      <c r="F12" s="42">
+        <v>16022.215</v>
+      </c>
+      <c r="G12" s="42">
+        <v>7004.6620000000003</v>
+      </c>
+      <c r="H12" s="42">
+        <v>114539.80100000001</v>
+      </c>
+      <c r="I12" s="42">
+        <v>536435.08499999996</v>
+      </c>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B13" s="91"/>
+      <c r="C13" s="39" t="s">
+        <v>225</v>
+      </c>
+      <c r="D13" s="42" t="s">
+        <v>239</v>
+      </c>
+      <c r="E13" s="42" t="s">
+        <v>238</v>
+      </c>
+      <c r="F13" s="42" t="s">
+        <v>237</v>
+      </c>
+      <c r="G13" s="42" t="s">
+        <v>240</v>
+      </c>
+      <c r="H13" s="42" t="s">
+        <v>241</v>
+      </c>
+      <c r="I13" s="42" t="s">
+        <v>243</v>
+      </c>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B14" s="91"/>
+      <c r="C14" s="39" t="s">
+        <v>227</v>
+      </c>
+      <c r="D14" s="42">
+        <v>2826.9</v>
+      </c>
+      <c r="E14" s="42">
+        <v>1139.0999999999999</v>
+      </c>
+      <c r="F14" s="42">
+        <v>57.2</v>
+      </c>
+      <c r="G14" s="42">
+        <v>23.4</v>
+      </c>
+      <c r="H14" s="42">
+        <v>287.39999999999998</v>
+      </c>
+      <c r="I14" s="42">
+        <v>4190.8999999999996</v>
+      </c>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B15" s="91"/>
+      <c r="C15" s="39" t="s">
+        <v>250</v>
+      </c>
+      <c r="D15" s="42">
+        <v>1.2</v>
+      </c>
+      <c r="E15" s="42">
+        <v>0.4</v>
+      </c>
+      <c r="F15" s="42">
+        <v>3.2</v>
+      </c>
+      <c r="G15" s="42">
+        <v>0</v>
+      </c>
+      <c r="H15" s="42">
+        <v>2.8</v>
+      </c>
+      <c r="I15" s="42">
+        <v>0</v>
+      </c>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B16" s="91"/>
+      <c r="C16" s="85" t="s">
+        <v>280</v>
+      </c>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B17" s="91"/>
+      <c r="C17" s="87"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B18" s="92"/>
+      <c r="C18" s="46" t="s">
+        <v>278</v>
+      </c>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="42"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B19" s="90" t="s">
+        <v>242</v>
+      </c>
+      <c r="C19" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D19" s="42">
+        <v>6798538</v>
+      </c>
+      <c r="E19" s="42">
+        <v>13844048</v>
+      </c>
+      <c r="F19" s="42">
+        <v>848824</v>
+      </c>
+      <c r="G19" s="42">
+        <v>7006</v>
+      </c>
+      <c r="H19" s="42">
+        <v>6941210</v>
+      </c>
+      <c r="I19" s="42">
+        <v>31554670</v>
+      </c>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B20" s="91"/>
+      <c r="C20" s="39" t="s">
+        <v>249</v>
+      </c>
+      <c r="D20" s="42">
+        <v>113299.821</v>
+      </c>
+      <c r="E20" s="42">
+        <v>230714.95699999999</v>
+      </c>
+      <c r="F20" s="42">
+        <v>14140.657999999999</v>
+      </c>
+      <c r="G20" s="42">
+        <v>7004.69</v>
+      </c>
+      <c r="H20" s="42">
+        <v>115671.507</v>
+      </c>
+      <c r="I20" s="42">
+        <v>524768.27399999998</v>
+      </c>
+      <c r="J20" s="42"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="42"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B21" s="91"/>
+      <c r="C21" s="39" t="s">
+        <v>225</v>
+      </c>
+      <c r="D21" s="42" t="s">
+        <v>246</v>
+      </c>
+      <c r="E21" s="42" t="s">
+        <v>247</v>
+      </c>
+      <c r="F21" s="42" t="s">
+        <v>245</v>
+      </c>
+      <c r="G21" s="42" t="s">
+        <v>240</v>
+      </c>
+      <c r="H21" s="42" t="s">
+        <v>248</v>
+      </c>
+      <c r="I21" s="42" t="s">
+        <v>251</v>
+      </c>
+      <c r="J21" s="42"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="42"/>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B22" s="91"/>
+      <c r="C22" s="39" t="s">
+        <v>227</v>
+      </c>
+      <c r="D22" s="42">
+        <v>2715.1</v>
+      </c>
+      <c r="E22" s="42">
+        <v>1156.5999999999999</v>
+      </c>
+      <c r="F22" s="42">
+        <v>50.5</v>
+      </c>
+      <c r="G22" s="42">
+        <v>23.4</v>
+      </c>
+      <c r="H22" s="42">
+        <v>290.8</v>
+      </c>
+      <c r="I22" s="42">
+        <v>4099.8</v>
+      </c>
+      <c r="J22" s="42"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="42"/>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B23" s="91"/>
+      <c r="C23" s="39" t="s">
+        <v>250</v>
+      </c>
+      <c r="D23" s="42">
+        <v>1.3</v>
+      </c>
+      <c r="E23" s="42">
+        <v>0.4</v>
+      </c>
+      <c r="F23" s="42">
+        <v>3.6</v>
+      </c>
+      <c r="G23" s="42">
+        <v>0</v>
+      </c>
+      <c r="H23" s="42">
+        <v>2.7</v>
+      </c>
+      <c r="I23" s="42">
+        <v>0</v>
+      </c>
+      <c r="J23" s="42"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="42"/>
+      <c r="M23" s="42"/>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B24" s="91"/>
+      <c r="C24" s="85" t="s">
+        <v>280</v>
+      </c>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="42"/>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B25" s="91"/>
+      <c r="C25" s="87"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="42"/>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B26" s="92"/>
+      <c r="C26" s="46" t="s">
+        <v>278</v>
+      </c>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="42"/>
+      <c r="M26" s="42"/>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B27" s="82" t="s">
+        <v>253</v>
+      </c>
+      <c r="C27" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D27" s="42">
+        <v>2909384</v>
+      </c>
+      <c r="E27" s="42">
+        <v>13611696</v>
+      </c>
+      <c r="F27" s="42">
+        <v>709279</v>
+      </c>
+      <c r="G27" s="42">
+        <v>7006</v>
+      </c>
+      <c r="H27" s="42">
+        <v>6768574</v>
+      </c>
+      <c r="I27" s="42">
+        <v>19664488</v>
+      </c>
+      <c r="J27" s="42"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="42"/>
+      <c r="M27" s="42"/>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B28" s="83"/>
+      <c r="C28" s="39" t="s">
+        <v>249</v>
+      </c>
+      <c r="D28" s="42">
+        <v>48485.841999999997</v>
+      </c>
+      <c r="E28" s="42">
+        <v>226839.82</v>
+      </c>
+      <c r="F28" s="42">
+        <v>11820.272999999999</v>
+      </c>
+      <c r="G28" s="42">
+        <v>7003.3950000000004</v>
+      </c>
+      <c r="H28" s="42">
+        <v>112793.834</v>
+      </c>
+      <c r="I28" s="42">
+        <v>327142.93099999998</v>
+      </c>
+      <c r="J28" s="42"/>
+      <c r="K28" s="42"/>
+      <c r="L28" s="42"/>
+      <c r="M28" s="42"/>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B29" s="83"/>
+      <c r="C29" s="39" t="s">
+        <v>225</v>
+      </c>
+      <c r="D29" s="42" t="s">
+        <v>260</v>
+      </c>
+      <c r="E29" s="42" t="s">
+        <v>261</v>
+      </c>
+      <c r="F29" s="42" t="s">
+        <v>262</v>
+      </c>
+      <c r="G29" s="42" t="s">
+        <v>240</v>
+      </c>
+      <c r="H29" s="42" t="s">
+        <v>263</v>
+      </c>
+      <c r="I29" s="42" t="s">
+        <v>264</v>
+      </c>
+      <c r="J29" s="42"/>
+      <c r="K29" s="42"/>
+      <c r="L29" s="42"/>
+      <c r="M29" s="42"/>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B30" s="83"/>
+      <c r="C30" s="39" t="s">
+        <v>227</v>
+      </c>
+      <c r="D30" s="42">
+        <v>1161.7</v>
+      </c>
+      <c r="E30" s="42">
+        <v>1137.0999999999999</v>
+      </c>
+      <c r="F30" s="42">
+        <v>42.5</v>
+      </c>
+      <c r="G30" s="42">
+        <v>23.4</v>
+      </c>
+      <c r="H30" s="42">
+        <v>282.89999999999998</v>
+      </c>
+      <c r="I30" s="42">
+        <v>2555.8000000000002</v>
+      </c>
+      <c r="J30" s="42"/>
+      <c r="K30" s="42"/>
+      <c r="L30" s="42"/>
+      <c r="M30" s="42"/>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B31" s="83"/>
+      <c r="C31" s="39" t="s">
+        <v>250</v>
+      </c>
+      <c r="D31" s="42">
+        <v>3.6</v>
+      </c>
+      <c r="E31" s="42">
+        <v>0.4</v>
+      </c>
+      <c r="F31" s="42">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G31" s="42">
+        <v>0</v>
+      </c>
+      <c r="H31" s="42">
+        <v>2.8</v>
+      </c>
+      <c r="I31" s="42">
+        <v>0</v>
+      </c>
+      <c r="J31" s="42"/>
+      <c r="K31" s="42"/>
+      <c r="L31" s="42"/>
+      <c r="M31" s="42"/>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B32" s="83"/>
+      <c r="C32" s="85" t="s">
+        <v>280</v>
+      </c>
+      <c r="D32" s="42" t="s">
+        <v>267</v>
+      </c>
+      <c r="E32" s="42" t="s">
+        <v>269</v>
+      </c>
+      <c r="F32" s="42" t="s">
+        <v>268</v>
+      </c>
+      <c r="G32" s="42" t="s">
+        <v>267</v>
+      </c>
+      <c r="H32" s="42" t="s">
+        <v>266</v>
+      </c>
+      <c r="I32" s="42" t="s">
+        <v>265</v>
+      </c>
+      <c r="J32" s="42"/>
+      <c r="K32" s="42"/>
+      <c r="L32" s="42"/>
+      <c r="M32" s="42"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B33" s="83"/>
+      <c r="C33" s="87"/>
+      <c r="D33" s="42">
+        <v>306.41000000000003</v>
+      </c>
+      <c r="E33" s="42">
+        <v>912.05</v>
+      </c>
+      <c r="F33" s="42">
+        <v>268.2</v>
+      </c>
+      <c r="G33" s="42">
+        <v>0.19</v>
+      </c>
+      <c r="H33" s="42">
+        <v>503.94</v>
+      </c>
+      <c r="I33" s="42">
+        <v>5038.7700000000004</v>
+      </c>
+      <c r="J33" s="42"/>
+      <c r="K33" s="42"/>
+      <c r="L33" s="42"/>
+      <c r="M33" s="42"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B34" s="84"/>
+      <c r="C34" s="46" t="s">
+        <v>278</v>
+      </c>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="42"/>
+      <c r="J34" s="42"/>
+      <c r="K34" s="42"/>
+      <c r="L34" s="42"/>
+      <c r="M34" s="42"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B35" s="82" t="s">
+        <v>252</v>
+      </c>
+      <c r="C35" s="40" t="s">
+        <v>224</v>
+      </c>
+      <c r="D35" s="42">
+        <v>5176116</v>
+      </c>
+      <c r="E35" s="42">
+        <v>13566637</v>
+      </c>
+      <c r="F35" s="42">
+        <v>926416</v>
+      </c>
+      <c r="G35" s="42">
+        <v>7006</v>
+      </c>
+      <c r="H35" s="42">
+        <v>6928399</v>
+      </c>
+      <c r="I35" s="42">
+        <v>29412039</v>
+      </c>
+      <c r="J35" s="42"/>
+      <c r="K35" s="42"/>
+      <c r="L35" s="42"/>
+      <c r="M35" s="42"/>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B36" s="83"/>
+      <c r="C36" s="40" t="s">
+        <v>249</v>
+      </c>
+      <c r="D36" s="42">
+        <v>86261.040999999997</v>
+      </c>
+      <c r="E36" s="42">
+        <v>226092.209</v>
+      </c>
+      <c r="F36" s="42">
+        <v>15437.957</v>
+      </c>
+      <c r="G36" s="42">
+        <v>6994.7730000000001</v>
+      </c>
+      <c r="H36" s="42">
+        <v>115455.01300000001</v>
+      </c>
+      <c r="I36" s="42">
+        <v>489899.84299999999</v>
+      </c>
+      <c r="J36" s="42"/>
+      <c r="K36" s="42"/>
+      <c r="L36" s="42"/>
+      <c r="M36" s="42"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B37" s="83"/>
+      <c r="C37" s="40" t="s">
+        <v>225</v>
+      </c>
+      <c r="D37" s="42" t="s">
+        <v>279</v>
+      </c>
+      <c r="E37" s="42" t="s">
+        <v>281</v>
+      </c>
+      <c r="F37" s="42" t="s">
+        <v>282</v>
+      </c>
+      <c r="G37" s="42" t="s">
+        <v>233</v>
+      </c>
+      <c r="H37" s="42" t="s">
+        <v>284</v>
+      </c>
+      <c r="I37" s="42" t="s">
+        <v>285</v>
+      </c>
+      <c r="J37" s="42"/>
+      <c r="K37" s="42"/>
+      <c r="L37" s="42"/>
+      <c r="M37" s="42"/>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B38" s="83"/>
+      <c r="C38" s="40" t="s">
+        <v>227</v>
+      </c>
+      <c r="D38" s="42">
+        <v>2068.4</v>
+      </c>
+      <c r="E38" s="42">
+        <v>1133.4000000000001</v>
+      </c>
+      <c r="F38" s="42">
+        <v>54.9</v>
+      </c>
+      <c r="G38" s="42">
+        <v>23.3</v>
+      </c>
+      <c r="H38" s="42">
+        <v>290.5</v>
+      </c>
+      <c r="I38" s="42">
+        <v>3827.3</v>
+      </c>
+      <c r="J38" s="42"/>
+      <c r="K38" s="42"/>
+      <c r="L38" s="42"/>
+      <c r="M38" s="42"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B39" s="83"/>
+      <c r="C39" s="40" t="s">
+        <v>250</v>
+      </c>
+      <c r="D39" s="42">
+        <v>1.8</v>
+      </c>
+      <c r="E39" s="42">
+        <v>0.4</v>
+      </c>
+      <c r="F39" s="42">
+        <v>3.3</v>
+      </c>
+      <c r="G39" s="42">
+        <v>0</v>
+      </c>
+      <c r="H39" s="42">
+        <v>2.7</v>
+      </c>
+      <c r="I39" s="42">
+        <v>0</v>
+      </c>
+      <c r="J39" s="42"/>
+      <c r="K39" s="42"/>
+      <c r="L39" s="42"/>
+      <c r="M39" s="42"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B40" s="83"/>
+      <c r="C40" s="85" t="s">
+        <v>280</v>
+      </c>
+      <c r="D40" s="42" t="s">
+        <v>267</v>
+      </c>
+      <c r="E40" s="42" t="s">
+        <v>269</v>
+      </c>
+      <c r="F40" s="42" t="s">
+        <v>273</v>
+      </c>
+      <c r="G40" s="42" t="s">
+        <v>283</v>
+      </c>
+      <c r="H40" s="42" t="s">
+        <v>267</v>
+      </c>
+      <c r="I40" s="42" t="s">
+        <v>277</v>
+      </c>
+      <c r="J40" s="42"/>
+      <c r="K40" s="42"/>
+      <c r="L40" s="42"/>
+      <c r="M40" s="42"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B41" s="83"/>
+      <c r="C41" s="87"/>
+      <c r="D41" s="42">
+        <v>174.42</v>
+      </c>
+      <c r="E41" s="42">
+        <v>788.67</v>
+      </c>
+      <c r="F41" s="42">
+        <v>211</v>
+      </c>
+      <c r="G41" s="42">
+        <v>0.15</v>
+      </c>
+      <c r="H41" s="42">
+        <v>291.85000000000002</v>
+      </c>
+      <c r="I41" s="42">
+        <v>156.11000000000001</v>
+      </c>
+      <c r="J41" s="42"/>
+      <c r="K41" s="42"/>
+      <c r="L41" s="42"/>
+      <c r="M41" s="42"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B42" s="84"/>
+      <c r="C42" s="46" t="s">
+        <v>278</v>
+      </c>
+      <c r="D42" s="42">
+        <v>15.5</v>
+      </c>
+      <c r="E42" s="42">
+        <v>20</v>
+      </c>
+      <c r="F42" s="42">
+        <v>15.8</v>
+      </c>
+      <c r="G42" s="42">
+        <v>16.7</v>
+      </c>
+      <c r="H42" s="42">
+        <v>16.7</v>
+      </c>
+      <c r="I42" s="42">
+        <v>21.1</v>
+      </c>
+      <c r="J42" s="42"/>
+      <c r="K42" s="42"/>
+      <c r="L42" s="42"/>
+      <c r="M42" s="42"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B43" s="82" t="s">
+        <v>254</v>
+      </c>
+      <c r="C43" s="40" t="s">
+        <v>224</v>
+      </c>
+      <c r="D43" s="42">
+        <v>6666988</v>
+      </c>
+      <c r="E43" s="42">
+        <v>13708598</v>
+      </c>
+      <c r="F43" s="42">
+        <v>941353</v>
+      </c>
+      <c r="G43" s="42">
+        <v>7006</v>
+      </c>
+      <c r="H43" s="42">
+        <v>7059654</v>
+      </c>
+      <c r="I43" s="42">
+        <v>30145923</v>
+      </c>
+      <c r="J43" s="42"/>
+      <c r="K43" s="42"/>
+      <c r="L43" s="42"/>
+      <c r="M43" s="42"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B44" s="83"/>
+      <c r="C44" s="40" t="s">
+        <v>249</v>
+      </c>
+      <c r="D44" s="42">
+        <v>111106.808</v>
+      </c>
+      <c r="E44" s="42">
+        <v>228457.61</v>
+      </c>
+      <c r="F44" s="42">
+        <v>15687.851000000001</v>
+      </c>
+      <c r="G44" s="42">
+        <v>7000.6170000000002</v>
+      </c>
+      <c r="H44" s="42">
+        <v>117644.024</v>
+      </c>
+      <c r="I44" s="42">
+        <v>501386.609</v>
+      </c>
+      <c r="J44" s="42"/>
+      <c r="K44" s="42"/>
+      <c r="L44" s="42"/>
+      <c r="M44" s="42"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B45" s="83"/>
+      <c r="C45" s="40" t="s">
+        <v>225</v>
+      </c>
+      <c r="D45" s="42" t="s">
+        <v>270</v>
+      </c>
+      <c r="E45" s="42" t="s">
+        <v>271</v>
+      </c>
+      <c r="F45" s="42" t="s">
+        <v>272</v>
+      </c>
+      <c r="G45" s="42" t="s">
+        <v>274</v>
+      </c>
+      <c r="H45" s="42" t="s">
+        <v>275</v>
+      </c>
+      <c r="I45" s="42" t="s">
+        <v>276</v>
+      </c>
+      <c r="J45" s="42"/>
+      <c r="K45" s="42"/>
+      <c r="L45" s="42"/>
+      <c r="M45" s="42"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B46" s="83"/>
+      <c r="C46" s="40" t="s">
+        <v>227</v>
+      </c>
+      <c r="D46" s="42">
+        <v>2663.2</v>
+      </c>
+      <c r="E46" s="42">
+        <v>1145.3</v>
+      </c>
+      <c r="F46" s="42">
+        <v>56.5</v>
+      </c>
+      <c r="G46" s="42">
+        <v>23.4</v>
+      </c>
+      <c r="H46" s="42">
+        <v>295</v>
+      </c>
+      <c r="I46" s="42">
+        <v>3917.1</v>
+      </c>
+      <c r="J46" s="42"/>
+      <c r="K46" s="42"/>
+      <c r="L46" s="42"/>
+      <c r="M46" s="42"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B47" s="83"/>
+      <c r="C47" s="40" t="s">
+        <v>250</v>
+      </c>
+      <c r="D47" s="42">
+        <v>1.3</v>
+      </c>
+      <c r="E47" s="42">
+        <v>0.4</v>
+      </c>
+      <c r="F47" s="42">
+        <v>3.3</v>
+      </c>
+      <c r="G47" s="42">
+        <v>0</v>
+      </c>
+      <c r="H47" s="42">
+        <v>2.7</v>
+      </c>
+      <c r="I47" s="42">
+        <v>0</v>
+      </c>
+      <c r="J47" s="42"/>
+      <c r="K47" s="42"/>
+      <c r="L47" s="42"/>
+      <c r="M47" s="42"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B48" s="83"/>
+      <c r="C48" s="85" t="s">
+        <v>280</v>
+      </c>
+      <c r="D48" s="42" t="s">
+        <v>267</v>
+      </c>
+      <c r="E48" s="42" t="s">
+        <v>269</v>
+      </c>
+      <c r="F48" s="42" t="s">
+        <v>273</v>
+      </c>
+      <c r="G48" s="42" t="s">
+        <v>267</v>
+      </c>
+      <c r="H48" s="42" t="s">
+        <v>267</v>
+      </c>
+      <c r="I48" s="42" t="s">
+        <v>277</v>
+      </c>
+      <c r="J48" s="42"/>
+      <c r="K48" s="42"/>
+      <c r="L48" s="42"/>
+      <c r="M48" s="42"/>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B49" s="83"/>
+      <c r="C49" s="87"/>
+      <c r="D49" s="42">
+        <v>74.36</v>
+      </c>
+      <c r="E49" s="42">
+        <v>332.21</v>
+      </c>
+      <c r="F49" s="42">
+        <v>69.86</v>
+      </c>
+      <c r="G49" s="42">
+        <v>0.11</v>
+      </c>
+      <c r="H49" s="42">
+        <v>235.24</v>
+      </c>
+      <c r="I49" s="42">
+        <v>213</v>
+      </c>
+      <c r="J49" s="42"/>
+      <c r="K49" s="42"/>
+      <c r="L49" s="42"/>
+      <c r="M49" s="42"/>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B50" s="84"/>
+      <c r="C50" s="46" t="s">
+        <v>278</v>
+      </c>
+      <c r="D50" s="42"/>
+      <c r="E50" s="42"/>
+      <c r="F50" s="42"/>
+      <c r="G50" s="42"/>
+      <c r="H50" s="42"/>
+      <c r="I50" s="42"/>
+      <c r="J50" s="42"/>
+      <c r="K50" s="42"/>
+      <c r="L50" s="42"/>
+      <c r="M50" s="42"/>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B51" s="80" t="s">
+        <v>244</v>
+      </c>
+      <c r="C51" s="40" t="s">
+        <v>224</v>
+      </c>
+      <c r="D51" s="42">
+        <v>7092622</v>
+      </c>
+      <c r="E51" s="42">
+        <v>13588541</v>
+      </c>
+      <c r="F51" s="42">
+        <v>957278</v>
+      </c>
+      <c r="G51" s="42">
+        <v>7006</v>
+      </c>
+      <c r="H51" s="42">
+        <v>7124270</v>
+      </c>
+      <c r="I51" s="42">
+        <v>32120666</v>
+      </c>
+      <c r="J51" s="42"/>
+      <c r="K51" s="42"/>
+      <c r="L51" s="42"/>
+      <c r="M51" s="42"/>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B52" s="81"/>
+      <c r="C52" s="40" t="s">
+        <v>249</v>
+      </c>
+      <c r="D52" s="42">
+        <v>118200.12699999999</v>
+      </c>
+      <c r="E52" s="42">
+        <v>226457.30600000001</v>
+      </c>
+      <c r="F52" s="42">
+        <v>15951.914000000001</v>
+      </c>
+      <c r="G52" s="42">
+        <v>7004.6270000000004</v>
+      </c>
+      <c r="H52" s="42">
+        <v>118718.55499999999</v>
+      </c>
+      <c r="I52" s="42">
+        <v>534585.81999999995</v>
+      </c>
+      <c r="J52" s="42"/>
+      <c r="K52" s="42"/>
+      <c r="L52" s="42"/>
+      <c r="M52" s="42"/>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B53" s="81"/>
+      <c r="C53" s="40" t="s">
+        <v>225</v>
+      </c>
+      <c r="D53" s="42" t="s">
+        <v>257</v>
+      </c>
+      <c r="E53" s="42" t="s">
+        <v>258</v>
+      </c>
+      <c r="F53" s="42" t="s">
+        <v>259</v>
+      </c>
+      <c r="G53" s="42" t="s">
+        <v>240</v>
+      </c>
+      <c r="H53" s="42" t="s">
+        <v>255</v>
+      </c>
+      <c r="I53" s="42" t="s">
+        <v>256</v>
+      </c>
+      <c r="J53" s="42"/>
+      <c r="K53" s="42"/>
+      <c r="L53" s="42"/>
+      <c r="M53" s="42"/>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B54" s="81"/>
+      <c r="C54" s="40" t="s">
+        <v>227</v>
+      </c>
+      <c r="D54" s="42">
+        <v>2835.8</v>
+      </c>
+      <c r="E54" s="42">
+        <v>1135.3</v>
+      </c>
+      <c r="F54" s="42">
+        <v>57.1</v>
+      </c>
+      <c r="G54" s="42">
+        <v>23.4</v>
+      </c>
+      <c r="H54" s="42">
+        <v>297.60000000000002</v>
+      </c>
+      <c r="I54" s="42">
+        <v>4176.5</v>
+      </c>
+      <c r="J54" s="42"/>
+      <c r="K54" s="42"/>
+      <c r="L54" s="42"/>
+      <c r="M54" s="42"/>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B55" s="81"/>
+      <c r="C55" s="41" t="s">
+        <v>250</v>
+      </c>
+      <c r="D55" s="44">
+        <v>1.2</v>
+      </c>
+      <c r="E55" s="44">
+        <v>0.4</v>
+      </c>
+      <c r="F55" s="44">
+        <v>3.2</v>
+      </c>
+      <c r="G55" s="44">
+        <v>0</v>
+      </c>
+      <c r="H55" s="44">
+        <v>2.7</v>
+      </c>
+      <c r="I55" s="44">
+        <v>0</v>
+      </c>
+      <c r="J55" s="44"/>
+      <c r="K55" s="44"/>
+      <c r="L55" s="44"/>
+      <c r="M55" s="44"/>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B56" s="81"/>
+      <c r="C56" s="85" t="s">
+        <v>280</v>
+      </c>
+      <c r="D56" s="42"/>
+      <c r="E56" s="42"/>
+      <c r="F56" s="42"/>
+      <c r="G56" s="42"/>
+      <c r="H56" s="42"/>
+      <c r="I56" s="42"/>
+      <c r="J56" s="42"/>
+      <c r="K56" s="42"/>
+      <c r="L56" s="42"/>
+      <c r="M56" s="42"/>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B57" s="81"/>
+      <c r="C57" s="86"/>
+      <c r="D57" s="42"/>
+      <c r="E57" s="42"/>
+      <c r="F57" s="42"/>
+      <c r="G57" s="42"/>
+      <c r="H57" s="42"/>
+      <c r="I57" s="42"/>
+      <c r="J57" s="42"/>
+      <c r="K57" s="42"/>
+      <c r="L57" s="42"/>
+      <c r="M57" s="42"/>
+    </row>
+    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B58" s="81"/>
+      <c r="C58" s="41" t="s">
+        <v>278</v>
+      </c>
+      <c r="D58" s="45"/>
+      <c r="E58" s="45"/>
+      <c r="F58" s="45"/>
+      <c r="G58" s="45"/>
+      <c r="H58" s="45"/>
+      <c r="I58" s="45"/>
+      <c r="J58" s="45"/>
+      <c r="K58" s="45"/>
+      <c r="L58" s="45"/>
+      <c r="M58" s="45"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B35:B42"/>
+    <mergeCell ref="B19:B26"/>
+    <mergeCell ref="B11:B18"/>
+    <mergeCell ref="B3:B10"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="B51:B58"/>
+    <mergeCell ref="B27:B34"/>
+    <mergeCell ref="B43:B50"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="C40:C41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4541,32 +6496,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:19" s="11" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51" t="s">
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59" t="s">
         <v>88</v>
       </c>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51" t="s">
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59" t="s">
         <v>90</v>
       </c>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51" t="s">
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
     </row>
     <row r="3" spans="2:19" s="11" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
       <c r="D3" s="18">
         <v>1</v>
       </c>
@@ -4611,7 +6566,7 @@
       </c>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="56" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="16" t="s">
@@ -4652,7 +6607,7 @@
       </c>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B5" s="49"/>
+      <c r="B5" s="57"/>
       <c r="C5" s="16" t="s">
         <v>16</v>
       </c>
@@ -4688,7 +6643,7 @@
       <c r="Q5" s="17"/>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B6" s="49"/>
+      <c r="B6" s="57"/>
       <c r="C6" s="18" t="s">
         <v>15</v>
       </c>
@@ -4728,7 +6683,7 @@
       <c r="Q6" s="15"/>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B7" s="49"/>
+      <c r="B7" s="57"/>
       <c r="C7" s="18" t="s">
         <v>16</v>
       </c>
@@ -4768,7 +6723,7 @@
       <c r="Q7" s="15"/>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B8" s="49"/>
+      <c r="B8" s="57"/>
       <c r="C8" s="16" t="s">
         <v>85</v>
       </c>
@@ -4811,7 +6766,7 @@
       </c>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B9" s="49"/>
+      <c r="B9" s="57"/>
       <c r="C9" s="16" t="s">
         <v>86</v>
       </c>
@@ -4851,7 +6806,7 @@
       <c r="Q9" s="17"/>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B10" s="49"/>
+      <c r="B10" s="57"/>
       <c r="C10" s="18" t="s">
         <v>85</v>
       </c>
@@ -4891,7 +6846,7 @@
       <c r="Q10" s="15"/>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B11" s="50"/>
+      <c r="B11" s="58"/>
       <c r="C11" s="18" t="s">
         <v>86</v>
       </c>
@@ -4931,7 +6886,7 @@
       <c r="Q11" s="15"/>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="56" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="16" t="s">
@@ -4969,7 +6924,7 @@
       <c r="Q12" s="17"/>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B13" s="49"/>
+      <c r="B13" s="57"/>
       <c r="C13" s="16" t="s">
         <v>16</v>
       </c>
@@ -5005,7 +6960,7 @@
       <c r="Q13" s="17"/>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B14" s="49"/>
+      <c r="B14" s="57"/>
       <c r="C14" s="18" t="s">
         <v>15</v>
       </c>
@@ -5045,7 +7000,7 @@
       <c r="Q14" s="15"/>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B15" s="49"/>
+      <c r="B15" s="57"/>
       <c r="C15" s="18" t="s">
         <v>16</v>
       </c>
@@ -5085,7 +7040,7 @@
       <c r="Q15" s="15"/>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B16" s="49"/>
+      <c r="B16" s="57"/>
       <c r="C16" s="16" t="s">
         <v>85</v>
       </c>
@@ -5125,7 +7080,7 @@
       <c r="Q16" s="17"/>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B17" s="49"/>
+      <c r="B17" s="57"/>
       <c r="C17" s="16" t="s">
         <v>86</v>
       </c>
@@ -5165,7 +7120,7 @@
       <c r="Q17" s="17"/>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B18" s="49"/>
+      <c r="B18" s="57"/>
       <c r="C18" s="18" t="s">
         <v>85</v>
       </c>
@@ -5205,7 +7160,7 @@
       <c r="Q18" s="15"/>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B19" s="50"/>
+      <c r="B19" s="58"/>
       <c r="C19" s="18" t="s">
         <v>86</v>
       </c>
@@ -5245,7 +7200,7 @@
       <c r="Q19" s="15"/>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B20" s="48" t="s">
+      <c r="B20" s="56" t="s">
         <v>12</v>
       </c>
       <c r="C20" s="16" t="s">
@@ -5283,7 +7238,7 @@
       <c r="Q20" s="17"/>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B21" s="49"/>
+      <c r="B21" s="57"/>
       <c r="C21" s="16" t="s">
         <v>16</v>
       </c>
@@ -5319,7 +7274,7 @@
       <c r="Q21" s="17"/>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B22" s="49"/>
+      <c r="B22" s="57"/>
       <c r="C22" s="18" t="s">
         <v>15</v>
       </c>
@@ -5359,7 +7314,7 @@
       <c r="Q22" s="15"/>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B23" s="49"/>
+      <c r="B23" s="57"/>
       <c r="C23" s="18" t="s">
         <v>16</v>
       </c>
@@ -5399,7 +7354,7 @@
       <c r="Q23" s="15"/>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B24" s="49"/>
+      <c r="B24" s="57"/>
       <c r="C24" s="16" t="s">
         <v>85</v>
       </c>
@@ -5439,7 +7394,7 @@
       <c r="Q24" s="17"/>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B25" s="49"/>
+      <c r="B25" s="57"/>
       <c r="C25" s="16" t="s">
         <v>86</v>
       </c>
@@ -5479,7 +7434,7 @@
       <c r="Q25" s="17"/>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B26" s="49"/>
+      <c r="B26" s="57"/>
       <c r="C26" s="18" t="s">
         <v>85</v>
       </c>
@@ -5519,7 +7474,7 @@
       <c r="Q26" s="15"/>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B27" s="49"/>
+      <c r="B27" s="57"/>
       <c r="C27" s="18" t="s">
         <v>86</v>
       </c>
@@ -5559,7 +7514,7 @@
       <c r="Q27" s="15"/>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B28" s="49"/>
+      <c r="B28" s="57"/>
       <c r="C28" s="18" t="s">
         <v>85</v>
       </c>
@@ -5598,7 +7553,7 @@
       </c>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B29" s="48" t="s">
+      <c r="B29" s="56" t="s">
         <v>13</v>
       </c>
       <c r="C29" s="16" t="s">
@@ -5636,7 +7591,7 @@
       <c r="Q29" s="17"/>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B30" s="49"/>
+      <c r="B30" s="57"/>
       <c r="C30" s="16" t="s">
         <v>16</v>
       </c>
@@ -5672,7 +7627,7 @@
       <c r="Q30" s="17"/>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B31" s="49"/>
+      <c r="B31" s="57"/>
       <c r="C31" s="18" t="s">
         <v>15</v>
       </c>
@@ -5712,7 +7667,7 @@
       <c r="Q31" s="15"/>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B32" s="49"/>
+      <c r="B32" s="57"/>
       <c r="C32" s="18" t="s">
         <v>16</v>
       </c>
@@ -5752,7 +7707,7 @@
       <c r="Q32" s="15"/>
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B33" s="49"/>
+      <c r="B33" s="57"/>
       <c r="C33" s="16" t="s">
         <v>85</v>
       </c>
@@ -5792,7 +7747,7 @@
       <c r="Q33" s="17"/>
     </row>
     <row r="34" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B34" s="49"/>
+      <c r="B34" s="57"/>
       <c r="C34" s="16" t="s">
         <v>86</v>
       </c>
@@ -5832,7 +7787,7 @@
       <c r="Q34" s="17"/>
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B35" s="49"/>
+      <c r="B35" s="57"/>
       <c r="C35" s="18" t="s">
         <v>85</v>
       </c>
@@ -5872,7 +7827,7 @@
       <c r="Q35" s="15"/>
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B36" s="50"/>
+      <c r="B36" s="58"/>
       <c r="C36" s="18" t="s">
         <v>86</v>
       </c>
@@ -5912,7 +7867,7 @@
       <c r="Q36" s="15"/>
     </row>
     <row r="37" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B37" s="48" t="s">
+      <c r="B37" s="56" t="s">
         <v>14</v>
       </c>
       <c r="C37" s="16" t="s">
@@ -5950,7 +7905,7 @@
       <c r="Q37" s="17"/>
     </row>
     <row r="38" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B38" s="49"/>
+      <c r="B38" s="57"/>
       <c r="C38" s="16" t="s">
         <v>16</v>
       </c>
@@ -5986,7 +7941,7 @@
       <c r="Q38" s="17"/>
     </row>
     <row r="39" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B39" s="49"/>
+      <c r="B39" s="57"/>
       <c r="C39" s="18" t="s">
         <v>15</v>
       </c>
@@ -6026,7 +7981,7 @@
       <c r="Q39" s="15"/>
     </row>
     <row r="40" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B40" s="49"/>
+      <c r="B40" s="57"/>
       <c r="C40" s="18" t="s">
         <v>16</v>
       </c>
@@ -6066,7 +8021,7 @@
       <c r="Q40" s="15"/>
     </row>
     <row r="41" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B41" s="49"/>
+      <c r="B41" s="57"/>
       <c r="C41" s="16" t="s">
         <v>85</v>
       </c>
@@ -6106,7 +8061,7 @@
       <c r="Q41" s="17"/>
     </row>
     <row r="42" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B42" s="49"/>
+      <c r="B42" s="57"/>
       <c r="C42" s="16" t="s">
         <v>86</v>
       </c>
@@ -6146,7 +8101,7 @@
       <c r="Q42" s="17"/>
     </row>
     <row r="43" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B43" s="49"/>
+      <c r="B43" s="57"/>
       <c r="C43" s="18" t="s">
         <v>85</v>
       </c>
@@ -6186,7 +8141,7 @@
       <c r="Q43" s="15"/>
     </row>
     <row r="44" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B44" s="50"/>
+      <c r="B44" s="58"/>
       <c r="C44" s="18" t="s">
         <v>86</v>
       </c>
@@ -6255,10 +8210,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{420A727C-FB1E-4328-87E4-7588BCEB09E0}">
-  <dimension ref="B1:M39"/>
+  <dimension ref="B1:M46"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6273,26 +8228,26 @@
       <c r="C1" s="11"/>
     </row>
     <row r="2" spans="2:13" s="11" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51" t="s">
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59" t="s">
         <v>88</v>
       </c>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51" t="s">
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59" t="s">
         <v>90</v>
       </c>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
     </row>
     <row r="3" spans="2:13" s="11" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
       <c r="D3" s="13">
         <v>1</v>
       </c>
@@ -6325,7 +8280,7 @@
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="57" t="s">
         <v>104</v>
       </c>
       <c r="C4" s="13" t="s">
@@ -6363,7 +8318,7 @@
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="49"/>
+      <c r="B5" s="57"/>
       <c r="C5" s="13" t="s">
         <v>16</v>
       </c>
@@ -6399,7 +8354,7 @@
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="49"/>
+      <c r="B6" s="57"/>
       <c r="C6" s="13" t="s">
         <v>85</v>
       </c>
@@ -6435,7 +8390,7 @@
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="50"/>
+      <c r="B7" s="58"/>
       <c r="C7" s="13" t="s">
         <v>86</v>
       </c>
@@ -6471,7 +8426,7 @@
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="57" t="s">
         <v>105</v>
       </c>
       <c r="C8" s="13" t="s">
@@ -6509,7 +8464,7 @@
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="49"/>
+      <c r="B9" s="57"/>
       <c r="C9" s="13" t="s">
         <v>16</v>
       </c>
@@ -6545,7 +8500,7 @@
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="49"/>
+      <c r="B10" s="57"/>
       <c r="C10" s="13" t="s">
         <v>85</v>
       </c>
@@ -6581,7 +8536,7 @@
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="50"/>
+      <c r="B11" s="58"/>
       <c r="C11" s="13" t="s">
         <v>86</v>
       </c>
@@ -6617,7 +8572,7 @@
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="56" t="s">
         <v>106</v>
       </c>
       <c r="C12" s="13" t="s">
@@ -6655,7 +8610,7 @@
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="49"/>
+      <c r="B13" s="57"/>
       <c r="C13" s="13" t="s">
         <v>16</v>
       </c>
@@ -6691,7 +8646,7 @@
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="49"/>
+      <c r="B14" s="57"/>
       <c r="C14" s="13" t="s">
         <v>85</v>
       </c>
@@ -6727,7 +8682,7 @@
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="53"/>
+      <c r="B15" s="61"/>
       <c r="C15" s="13" t="s">
         <v>86</v>
       </c>
@@ -6763,7 +8718,7 @@
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="49" t="s">
+      <c r="B16" s="57" t="s">
         <v>107</v>
       </c>
       <c r="C16" s="13" t="s">
@@ -6801,7 +8756,7 @@
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="49"/>
+      <c r="B17" s="57"/>
       <c r="C17" s="13" t="s">
         <v>16</v>
       </c>
@@ -6837,7 +8792,7 @@
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="49"/>
+      <c r="B18" s="57"/>
       <c r="C18" s="13" t="s">
         <v>85</v>
       </c>
@@ -6873,7 +8828,7 @@
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="50"/>
+      <c r="B19" s="58"/>
       <c r="C19" s="13" t="s">
         <v>86</v>
       </c>
@@ -6909,7 +8864,7 @@
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="49" t="s">
+      <c r="B20" s="57" t="s">
         <v>108</v>
       </c>
       <c r="C20" s="13" t="s">
@@ -6947,7 +8902,7 @@
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B21" s="49"/>
+      <c r="B21" s="57"/>
       <c r="C21" s="13" t="s">
         <v>16</v>
       </c>
@@ -6983,7 +8938,7 @@
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="49"/>
+      <c r="B22" s="57"/>
       <c r="C22" s="13" t="s">
         <v>85</v>
       </c>
@@ -7019,7 +8974,7 @@
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B23" s="50"/>
+      <c r="B23" s="58"/>
       <c r="C23" s="13" t="s">
         <v>86</v>
       </c>
@@ -7054,68 +9009,370 @@
         <v>83.9</v>
       </c>
     </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B24" s="57" t="s">
+        <v>207</v>
+      </c>
+      <c r="C24" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="15">
+        <v>1348</v>
+      </c>
+      <c r="E24" s="15">
+        <v>1246</v>
+      </c>
+      <c r="F24" s="15">
+        <v>1341</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H24" s="19">
+        <v>1312</v>
+      </c>
+      <c r="I24" s="15">
+        <v>76.2</v>
+      </c>
+      <c r="J24" s="15">
+        <v>76.5</v>
+      </c>
+      <c r="K24" s="15">
+        <v>76</v>
+      </c>
+      <c r="L24" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="M24" s="19">
+        <v>76.2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B25" s="57" t="s">
+        <v>214</v>
+      </c>
+      <c r="C25" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="15">
+        <v>1171</v>
+      </c>
+      <c r="E25" s="15">
+        <v>1185</v>
+      </c>
+      <c r="F25" s="15">
+        <v>1113</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H25" s="19">
+        <v>1156</v>
+      </c>
+      <c r="I25" s="15">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="J25" s="15">
+        <v>76.3</v>
+      </c>
+      <c r="K25" s="15">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="L25" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="M25" s="19">
+        <v>72.599999999999994</v>
+      </c>
+    </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="57"/>
+      <c r="C26" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" s="15">
+        <v>1957</v>
+      </c>
+      <c r="E26" s="15">
+        <v>2057</v>
+      </c>
+      <c r="F26" s="15">
+        <v>2019</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H26" s="19">
+        <v>2011</v>
+      </c>
+      <c r="I26" s="15">
+        <v>84.2</v>
+      </c>
+      <c r="J26" s="15">
+        <v>83.7</v>
+      </c>
+      <c r="K26" s="15">
+        <v>83.1</v>
+      </c>
+      <c r="L26" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="M26" s="19">
+        <v>83.6</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B27" s="58"/>
+      <c r="C27" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" s="15">
+        <v>2032</v>
+      </c>
+      <c r="E27" s="15">
+        <v>2038</v>
+      </c>
+      <c r="F27" s="15">
+        <v>2032</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H27" s="19">
+        <v>2034</v>
+      </c>
+      <c r="I27" s="15">
+        <v>83.4</v>
+      </c>
+      <c r="J27" s="15">
+        <v>87.2</v>
+      </c>
+      <c r="K27" s="15">
+        <v>81.099999999999994</v>
+      </c>
+      <c r="L27" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="M27" s="19">
+        <v>83.9</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B28" s="57" t="s">
+        <v>286</v>
+      </c>
+      <c r="C28" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="15">
+        <v>989</v>
+      </c>
+      <c r="E28" s="15">
+        <v>892</v>
+      </c>
+      <c r="F28" s="15">
+        <v>952</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H28" s="19">
+        <v>944</v>
+      </c>
+      <c r="I28" s="15">
+        <v>91.2</v>
+      </c>
+      <c r="J28" s="15">
+        <v>83.9</v>
+      </c>
+      <c r="K28" s="15">
+        <v>82.5</v>
+      </c>
+      <c r="L28" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="M28" s="19">
+        <v>85.9</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B29" s="57" t="s">
+        <v>215</v>
+      </c>
+      <c r="C29" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="15">
+        <v>1079</v>
+      </c>
+      <c r="E29" s="15">
+        <v>1070</v>
+      </c>
+      <c r="F29" s="15">
+        <v>1032</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H29" s="19">
+        <v>1060</v>
+      </c>
+      <c r="I29" s="15">
+        <v>83.7</v>
+      </c>
+      <c r="J29" s="15">
+        <v>91.4</v>
+      </c>
+      <c r="K29" s="15">
+        <v>91.3</v>
+      </c>
+      <c r="L29" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="M29" s="19">
+        <v>88.8</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B30" s="57"/>
+      <c r="C30" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="D30" s="15">
+        <v>2140</v>
+      </c>
+      <c r="E30" s="15">
+        <v>2238</v>
+      </c>
+      <c r="F30" s="15">
+        <v>2246</v>
+      </c>
+      <c r="G30" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H30" s="19">
+        <v>2208</v>
+      </c>
+      <c r="I30" s="15">
+        <v>76</v>
+      </c>
+      <c r="J30" s="15">
+        <v>68.3</v>
+      </c>
+      <c r="K30" s="15">
+        <v>68.099999999999994</v>
+      </c>
+      <c r="L30" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="M30" s="19">
+        <v>70.8</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B31" s="58"/>
+      <c r="C31" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="D31" s="15">
+        <v>2127</v>
+      </c>
+      <c r="E31" s="15">
+        <v>2216</v>
+      </c>
+      <c r="F31" s="15">
+        <v>2201</v>
+      </c>
+      <c r="G31" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H31" s="19">
+        <v>2181</v>
+      </c>
+      <c r="I31" s="15">
+        <v>60.6</v>
+      </c>
+      <c r="J31" s="15">
+        <v>69.2</v>
+      </c>
+      <c r="K31" s="15">
+        <v>60.9</v>
+      </c>
+      <c r="L31" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="M31" s="19">
+        <v>63.5</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="D26" s="14"/>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B27" s="14" t="s">
+      <c r="D33" s="14"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="D27" s="14"/>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B29" s="1" t="s">
+      <c r="D34" s="14"/>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C30" s="2" t="s">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C37" s="2" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="9" t="s">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B40" s="9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="9" t="s">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B41" s="9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" s="9" t="s">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B42" s="9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36" s="9" t="s">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B43" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37" s="9" t="s">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B44" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B38" s="9" t="s">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B45" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B39" s="9" t="s">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B46" s="9" t="s">
         <v>36</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="B28:B31"/>
     <mergeCell ref="D2:H2"/>
     <mergeCell ref="I2:M2"/>
     <mergeCell ref="B2:C3"/>
@@ -7133,10 +9390,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{644BB2B3-4C2F-4A18-8AAB-56815E9808E3}">
-  <dimension ref="B2:U16"/>
+  <dimension ref="B2:U23"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -7147,42 +9404,42 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="54"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="58" t="s">
+      <c r="B2" s="67"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="E2" s="59"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="61" t="s">
+      <c r="E2" s="63"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="65" t="s">
         <v>95</v>
       </c>
-      <c r="H2" s="59"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="58" t="s">
+      <c r="H2" s="63"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="62" t="s">
         <v>96</v>
       </c>
-      <c r="K2" s="59"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="58" t="s">
+      <c r="K2" s="63"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="N2" s="59"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="58" t="s">
+      <c r="N2" s="63"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="60"/>
-      <c r="S2" s="58" t="s">
+      <c r="Q2" s="63"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="62" t="s">
         <v>101</v>
       </c>
-      <c r="T2" s="59"/>
-      <c r="U2" s="60"/>
+      <c r="T2" s="63"/>
+      <c r="U2" s="64"/>
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B3" s="56"/>
-      <c r="C3" s="57"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="70"/>
       <c r="D3" s="18">
         <v>1</v>
       </c>
@@ -7239,12 +9496,10 @@
       </c>
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="18" t="s">
-        <v>99</v>
-      </c>
+      <c r="C4" s="18"/>
       <c r="D4" s="15">
         <v>1688</v>
       </c>
@@ -7301,7 +9556,7 @@
       </c>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B5" s="40"/>
+      <c r="B5" s="54"/>
       <c r="C5" s="18" t="s">
         <v>20</v>
       </c>
@@ -7330,7 +9585,7 @@
         <v>48.6</v>
       </c>
       <c r="L5" s="19">
-        <v>58.1</v>
+        <v>48.1</v>
       </c>
       <c r="M5" s="15">
         <v>32.6</v>
@@ -7361,7 +9616,7 @@
       </c>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="54" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="18" t="s">
@@ -7423,7 +9678,7 @@
       </c>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B7" s="40"/>
+      <c r="B7" s="54"/>
       <c r="C7" s="18" t="s">
         <v>20</v>
       </c>
@@ -7483,7 +9738,7 @@
       </c>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="54" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="18" t="s">
@@ -7545,7 +9800,7 @@
       </c>
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B9" s="40"/>
+      <c r="B9" s="54"/>
       <c r="C9" s="18" t="s">
         <v>20</v>
       </c>
@@ -7605,7 +9860,7 @@
       </c>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="54" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="18" t="s">
@@ -7667,7 +9922,7 @@
       </c>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B11" s="40"/>
+      <c r="B11" s="54"/>
       <c r="C11" s="18" t="s">
         <v>20</v>
       </c>
@@ -7727,7 +9982,7 @@
       </c>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="54" t="s">
         <v>100</v>
       </c>
       <c r="C12" s="18" t="s">
@@ -7789,7 +10044,7 @@
       </c>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B13" s="40"/>
+      <c r="B13" s="54"/>
       <c r="C13" s="18" t="s">
         <v>20</v>
       </c>
@@ -7848,30 +10103,165 @@
         <v>13.1</v>
       </c>
     </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B14" s="54" t="s">
+        <v>207</v>
+      </c>
+      <c r="C14" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="19">
+        <v>1642</v>
+      </c>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="19">
+        <v>1718</v>
+      </c>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="19">
+        <v>1751</v>
+      </c>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="19">
+        <v>1591</v>
+      </c>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="19">
+        <v>1563</v>
+      </c>
+      <c r="S14" s="15"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="19">
+        <v>1698</v>
+      </c>
+    </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="D15" s="14" t="s">
+      <c r="B15" s="54"/>
+      <c r="C15" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="19">
+        <v>98.4</v>
+      </c>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="19">
+        <v>76</v>
+      </c>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="19">
+        <v>60.4</v>
+      </c>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="19">
+        <v>44.8</v>
+      </c>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="19">
+        <v>34.9</v>
+      </c>
+      <c r="S15" s="15"/>
+      <c r="T15" s="15"/>
+      <c r="U15" s="19">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B16" s="54" t="s">
+        <v>242</v>
+      </c>
+      <c r="C16" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="19">
+        <v>1655</v>
+      </c>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="19">
+        <v>1653</v>
+      </c>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="15"/>
+      <c r="T16" s="15"/>
+      <c r="U16" s="19"/>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B17" s="54"/>
+      <c r="C17" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="15"/>
+      <c r="U17" s="19"/>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D19" s="14" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="D16" s="14" t="s">
+    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D20" s="14" t="s">
         <v>109</v>
       </c>
     </row>
+    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>287</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="14">
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B2:C3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
     <mergeCell ref="S2:U2"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="P2:R2"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7883,7 +10273,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AFE7F9D-67B7-411B-96BF-FE0DEC5ACDF9}">
   <dimension ref="B2:Q13"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
@@ -7900,9 +10290,9 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="63"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
       <c r="E2" s="25" t="s">
         <v>112</v>
       </c>
@@ -7944,10 +10334,10 @@
       </c>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="73" t="s">
         <v>100</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="56" t="s">
         <v>124</v>
       </c>
       <c r="D3" s="20" t="s">
@@ -7994,8 +10384,8 @@
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="65"/>
-      <c r="C4" s="49"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="57"/>
       <c r="D4" s="20" t="s">
         <v>20</v>
       </c>
@@ -8040,8 +10430,8 @@
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="65"/>
-      <c r="C5" s="48" t="s">
+      <c r="B5" s="73"/>
+      <c r="C5" s="56" t="s">
         <v>125</v>
       </c>
       <c r="D5" s="20" t="s">
@@ -8088,8 +10478,8 @@
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="65"/>
-      <c r="C6" s="49"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="57"/>
       <c r="D6" s="20" t="s">
         <v>20</v>
       </c>
@@ -8134,8 +10524,8 @@
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="65"/>
-      <c r="C7" s="48" t="s">
+      <c r="B7" s="73"/>
+      <c r="C7" s="56" t="s">
         <v>126</v>
       </c>
       <c r="D7" s="20" t="s">
@@ -8182,8 +10572,8 @@
       </c>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="65"/>
-      <c r="C8" s="49"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="57"/>
       <c r="D8" s="20" t="s">
         <v>20</v>
       </c>
@@ -8228,8 +10618,8 @@
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B9" s="65"/>
-      <c r="C9" s="48" t="s">
+      <c r="B9" s="73"/>
+      <c r="C9" s="56" t="s">
         <v>127</v>
       </c>
       <c r="D9" s="20" t="s">
@@ -8276,8 +10666,8 @@
       </c>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B10" s="65"/>
-      <c r="C10" s="49"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="57"/>
       <c r="D10" s="20" t="s">
         <v>20</v>
       </c>
@@ -8350,7 +10740,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CC964AB-77A4-435F-9FE7-964E074FB5CA}">
   <dimension ref="B2:O13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
@@ -8361,9 +10751,9 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="63"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
       <c r="E2" s="25" t="s">
         <v>133</v>
       </c>
@@ -8396,10 +10786,10 @@
       </c>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="73" t="s">
         <v>100</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="56" t="s">
         <v>15</v>
       </c>
       <c r="D3" s="21" t="s">
@@ -8434,8 +10824,8 @@
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="65"/>
-      <c r="C4" s="49"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="57"/>
       <c r="D4" s="21" t="s">
         <v>20</v>
       </c>
@@ -8468,8 +10858,8 @@
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="65"/>
-      <c r="C5" s="48" t="s">
+      <c r="B5" s="73"/>
+      <c r="C5" s="56" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="21" t="s">
@@ -8504,8 +10894,8 @@
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="65"/>
-      <c r="C6" s="49"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="57"/>
       <c r="D6" s="21" t="s">
         <v>20</v>
       </c>
@@ -8538,8 +10928,8 @@
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="65"/>
-      <c r="C7" s="48" t="s">
+      <c r="B7" s="73"/>
+      <c r="C7" s="56" t="s">
         <v>85</v>
       </c>
       <c r="D7" s="21" t="s">
@@ -8574,8 +10964,8 @@
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="65"/>
-      <c r="C8" s="49"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="57"/>
       <c r="D8" s="21" t="s">
         <v>20</v>
       </c>
@@ -8608,8 +10998,8 @@
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="65"/>
-      <c r="C9" s="48" t="s">
+      <c r="B9" s="73"/>
+      <c r="C9" s="56" t="s">
         <v>86</v>
       </c>
       <c r="D9" s="21" t="s">
@@ -8644,8 +11034,8 @@
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="65"/>
-      <c r="C10" s="49"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="57"/>
       <c r="D10" s="21" t="s">
         <v>20</v>
       </c>
@@ -8723,17 +11113,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="66"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="52" t="s">
+      <c r="B2" s="74"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
     </row>
     <row r="3" spans="2:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="68"/>
-      <c r="C3" s="69"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="77"/>
       <c r="D3" s="23" t="s">
         <v>148</v>
       </c>
@@ -8745,7 +11135,7 @@
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="73" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="28" t="s">
@@ -8765,7 +11155,7 @@
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="65"/>
+      <c r="B5" s="73"/>
       <c r="C5" s="28" t="s">
         <v>147</v>
       </c>
@@ -8780,7 +11170,7 @@
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="65"/>
+      <c r="B6" s="73"/>
       <c r="C6" s="28" t="s">
         <v>145</v>
       </c>
@@ -8795,7 +11185,7 @@
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="65" t="s">
+      <c r="B7" s="73" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="28" t="s">
@@ -8812,7 +11202,7 @@
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="65"/>
+      <c r="B8" s="73"/>
       <c r="C8" s="28" t="s">
         <v>147</v>
       </c>
@@ -8827,7 +11217,7 @@
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="65"/>
+      <c r="B9" s="73"/>
       <c r="C9" s="28" t="s">
         <v>145</v>
       </c>
@@ -8842,7 +11232,7 @@
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="65" t="s">
+      <c r="B10" s="73" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="28" t="s">
@@ -8859,7 +11249,7 @@
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="65"/>
+      <c r="B11" s="73"/>
       <c r="C11" s="28" t="s">
         <v>147</v>
       </c>
@@ -8874,7 +11264,7 @@
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="65"/>
+      <c r="B12" s="73"/>
       <c r="C12" s="28" t="s">
         <v>145</v>
       </c>
@@ -8889,7 +11279,7 @@
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="65" t="s">
+      <c r="B13" s="73" t="s">
         <v>100</v>
       </c>
       <c r="C13" s="28" t="s">
@@ -8906,7 +11296,7 @@
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="65"/>
+      <c r="B14" s="73"/>
       <c r="C14" s="28" t="s">
         <v>147</v>
       </c>
@@ -8921,7 +11311,7 @@
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="65"/>
+      <c r="B15" s="73"/>
       <c r="C15" s="28" t="s">
         <v>145</v>
       </c>
@@ -9025,7 +11415,7 @@
   <dimension ref="B2:Q20"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -9035,24 +11425,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="71" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="79" t="s">
         <v>205</v>
       </c>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71" t="s">
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79" t="s">
         <v>209</v>
       </c>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
       <c r="D3" s="5">
         <v>1</v>
       </c>
@@ -9079,7 +11469,7 @@
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="51" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -9111,7 +11501,7 @@
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="46"/>
+      <c r="B5" s="52"/>
       <c r="C5" s="5" t="s">
         <v>20</v>
       </c>
@@ -9141,7 +11531,7 @@
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="47"/>
+      <c r="B6" s="53"/>
       <c r="C6" s="5" t="s">
         <v>21</v>
       </c>
@@ -9162,7 +11552,7 @@
       <c r="Q6" s="36"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="51" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="5" t="s">
@@ -9199,7 +11589,7 @@
       <c r="Q7" s="36"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="46"/>
+      <c r="B8" s="52"/>
       <c r="C8" s="5" t="s">
         <v>20</v>
       </c>
@@ -9234,7 +11624,7 @@
       <c r="Q8" s="36"/>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B9" s="47"/>
+      <c r="B9" s="53"/>
       <c r="C9" s="5" t="s">
         <v>21</v>
       </c>
@@ -9255,7 +11645,7 @@
       <c r="Q9" s="36"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="51" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="5" t="s">
@@ -9292,7 +11682,7 @@
       <c r="Q10" s="36"/>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B11" s="46"/>
+      <c r="B11" s="52"/>
       <c r="C11" s="5" t="s">
         <v>20</v>
       </c>
@@ -9327,7 +11717,7 @@
       <c r="Q11" s="36"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B12" s="47"/>
+      <c r="B12" s="53"/>
       <c r="C12" s="5" t="s">
         <v>21</v>
       </c>
@@ -9348,7 +11738,7 @@
       <c r="Q12" s="36"/>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B13" s="45" t="s">
+      <c r="B13" s="51" t="s">
         <v>207</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -9385,7 +11775,7 @@
       <c r="Q13" s="36"/>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B14" s="46"/>
+      <c r="B14" s="52"/>
       <c r="C14" s="5" t="s">
         <v>20</v>
       </c>
@@ -9420,7 +11810,7 @@
       <c r="Q14" s="36"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="47"/>
+      <c r="B15" s="53"/>
       <c r="C15" s="5" t="s">
         <v>21</v>
       </c>
